--- a/ETF合并筛选结果.xlsx
+++ b/ETF合并筛选结果.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11480"/>
+    <workbookView windowWidth="27952" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>symbol</t>
   </si>
@@ -92,24 +92,6 @@
     <t>中证500</t>
   </si>
   <si>
-    <t>SHSE.513090</t>
-  </si>
-  <si>
-    <t>易方达中证香港证券投资主题ETF</t>
-  </si>
-  <si>
-    <t>香港证券投资</t>
-  </si>
-  <si>
-    <t>SHSE.588000</t>
-  </si>
-  <si>
-    <t>华夏上证科创板50成份ETF</t>
-  </si>
-  <si>
-    <t>科创板50成份</t>
-  </si>
-  <si>
     <t>SZSE.159206</t>
   </si>
   <si>
@@ -119,15 +101,6 @@
     <t>商用卫星</t>
   </si>
   <si>
-    <t>SHSE.588200</t>
-  </si>
-  <si>
-    <t>嘉实上证科创板芯片ETF</t>
-  </si>
-  <si>
-    <t>科创板芯片</t>
-  </si>
-  <si>
     <t>SZSE.159915</t>
   </si>
   <si>
@@ -164,15 +137,6 @@
     <t>光伏</t>
   </si>
   <si>
-    <t>SHSE.563230</t>
-  </si>
-  <si>
-    <t>富国中证卫星产业ETF</t>
-  </si>
-  <si>
-    <t>卫星</t>
-  </si>
-  <si>
     <t>SZSE.159870</t>
   </si>
   <si>
@@ -191,24 +155,6 @@
     <t>申万有色金属</t>
   </si>
   <si>
-    <t>SZSE.159792</t>
-  </si>
-  <si>
-    <t>富国中证港股通互联网ETF</t>
-  </si>
-  <si>
-    <t>港股通互联网</t>
-  </si>
-  <si>
-    <t>SHSE.512480</t>
-  </si>
-  <si>
-    <t>国联安半导体ETF</t>
-  </si>
-  <si>
-    <t>半导体</t>
-  </si>
-  <si>
     <t>SZSE.159326</t>
   </si>
   <si>
@@ -227,24 +173,6 @@
     <t>传媒</t>
   </si>
   <si>
-    <t>SHSE.588080</t>
-  </si>
-  <si>
-    <t>易方达上证科创板50ETF</t>
-  </si>
-  <si>
-    <t>科创板50</t>
-  </si>
-  <si>
-    <t>SHSE.588170</t>
-  </si>
-  <si>
-    <t>华夏上证科创板半导体材料设备主题ETF</t>
-  </si>
-  <si>
-    <t>科创板半导体材料设备</t>
-  </si>
-  <si>
     <t>SHSE.562500</t>
   </si>
   <si>
@@ -254,15 +182,6 @@
     <t>机器人</t>
   </si>
   <si>
-    <t>SZSE.159570</t>
-  </si>
-  <si>
-    <t>汇添富国证港股通创新药ETF</t>
-  </si>
-  <si>
-    <t>港股通创新药</t>
-  </si>
-  <si>
     <t>SZSE.159995</t>
   </si>
   <si>
@@ -281,15 +200,6 @@
     <t>软件服务</t>
   </si>
   <si>
-    <t>SZSE.159949</t>
-  </si>
-  <si>
-    <t>华安创业板50ETF</t>
-  </si>
-  <si>
-    <t>创业板50</t>
-  </si>
-  <si>
     <t>SHSE.512710</t>
   </si>
   <si>
@@ -299,15 +209,6 @@
     <t>军工</t>
   </si>
   <si>
-    <t>SHSE.513750</t>
-  </si>
-  <si>
-    <t>广发中证港股通非银ETF</t>
-  </si>
-  <si>
-    <t>港股通非银</t>
-  </si>
-  <si>
     <t>SHSE.515880</t>
   </si>
   <si>
@@ -344,15 +245,6 @@
     <t>金融科技</t>
   </si>
   <si>
-    <t>SHSE.512070</t>
-  </si>
-  <si>
-    <t>易方达沪深300非银ETF</t>
-  </si>
-  <si>
-    <t>沪深300非银</t>
-  </si>
-  <si>
     <t>SZSE.159201</t>
   </si>
   <si>
@@ -362,15 +254,6 @@
     <t>自由现金流</t>
   </si>
   <si>
-    <t>SHSE.512010</t>
-  </si>
-  <si>
-    <t>易方达沪深300医药ETF</t>
-  </si>
-  <si>
-    <t>沪深300医药</t>
-  </si>
-  <si>
     <t>SZSE.159755</t>
   </si>
   <si>
@@ -452,15 +335,6 @@
     <t>创新药</t>
   </si>
   <si>
-    <t>SHSE.588220</t>
-  </si>
-  <si>
-    <t>鹏华上证科创板100ETF</t>
-  </si>
-  <si>
-    <t>科创板100</t>
-  </si>
-  <si>
     <t>SHSE.560860</t>
   </si>
   <si>
@@ -479,33 +353,6 @@
     <t>房地产</t>
   </si>
   <si>
-    <t>SHSE.515230</t>
-  </si>
-  <si>
-    <t>国泰中证全指软件ETF</t>
-  </si>
-  <si>
-    <t>软件</t>
-  </si>
-  <si>
-    <t>SZSE.159363</t>
-  </si>
-  <si>
-    <t>华宝创业板人工智能ETF</t>
-  </si>
-  <si>
-    <t>创业板人工智能</t>
-  </si>
-  <si>
-    <t>SZSE.159636</t>
-  </si>
-  <si>
-    <t>工银瑞信国证港股通科技30ETF</t>
-  </si>
-  <si>
-    <t>港股通科技30</t>
-  </si>
-  <si>
     <t>SHSE.515220</t>
   </si>
   <si>
@@ -542,15 +389,6 @@
     <t>有色金属</t>
   </si>
   <si>
-    <t>SHSE.513630</t>
-  </si>
-  <si>
-    <t>摩根标普港股通低波红利ETF</t>
-  </si>
-  <si>
-    <t>标普港股通低波红利</t>
-  </si>
-  <si>
     <t>SZSE.159883</t>
   </si>
   <si>
@@ -560,42 +398,6 @@
     <t>医疗器械</t>
   </si>
   <si>
-    <t>SHSE.513920</t>
-  </si>
-  <si>
-    <t>华安恒生港股通中国央企红利ETF</t>
-  </si>
-  <si>
-    <t>港股通中国央企红利</t>
-  </si>
-  <si>
-    <t>SHSE.520980</t>
-  </si>
-  <si>
-    <t>汇添富恒生港股通中国科技ETF</t>
-  </si>
-  <si>
-    <t>港股通中国科技</t>
-  </si>
-  <si>
-    <t>SHSE.513980</t>
-  </si>
-  <si>
-    <t>景顺长城中证港股通科技ETF</t>
-  </si>
-  <si>
-    <t>港股通科技</t>
-  </si>
-  <si>
-    <t>SHSE.588790</t>
-  </si>
-  <si>
-    <t>博时科创板人工智能ETF</t>
-  </si>
-  <si>
-    <t>科创板人工智能</t>
-  </si>
-  <si>
     <t>SHSE.562800</t>
   </si>
   <si>
@@ -623,42 +425,6 @@
     <t>国防</t>
   </si>
   <si>
-    <t>SHSE.513190</t>
-  </si>
-  <si>
-    <t>华夏中证港股通内地金融ETF</t>
-  </si>
-  <si>
-    <t>港股通内地金融</t>
-  </si>
-  <si>
-    <t>SHSE.520880</t>
-  </si>
-  <si>
-    <t>华宝恒生港股通创新药精选ETF</t>
-  </si>
-  <si>
-    <t>港股通创新药精选</t>
-  </si>
-  <si>
-    <t>SHSE.512760</t>
-  </si>
-  <si>
-    <t>国泰CES芯片ETF</t>
-  </si>
-  <si>
-    <t>CES芯片</t>
-  </si>
-  <si>
-    <t>SHSE.588830</t>
-  </si>
-  <si>
-    <t>鹏华上证科创板新能源ETF</t>
-  </si>
-  <si>
-    <t>科创板新能源</t>
-  </si>
-  <si>
     <t>SZSE.159796</t>
   </si>
   <si>
@@ -677,15 +443,6 @@
     <t>综指</t>
   </si>
   <si>
-    <t>SHSE.563380</t>
-  </si>
-  <si>
-    <t>华泰柏瑞航空航天ETF</t>
-  </si>
-  <si>
-    <t>航空航天</t>
-  </si>
-  <si>
     <t>SZSE.159566</t>
   </si>
   <si>
@@ -704,24 +461,6 @@
     <t>旅游</t>
   </si>
   <si>
-    <t>SHSE.561380</t>
-  </si>
-  <si>
-    <t>国泰恒生A股电网设备ETF</t>
-  </si>
-  <si>
-    <t>A股电网设备</t>
-  </si>
-  <si>
-    <t>SHSE.520990</t>
-  </si>
-  <si>
-    <t>景顺长城中证国新港股通央企红利ETF</t>
-  </si>
-  <si>
-    <t>国新港股通央企红利</t>
-  </si>
-  <si>
     <t>SHSE.515030</t>
   </si>
   <si>
@@ -731,15 +470,6 @@
     <t>新能源汽车</t>
   </si>
   <si>
-    <t>SZSE.159691</t>
-  </si>
-  <si>
-    <t>工银瑞信中证港股通高股息精选ETF</t>
-  </si>
-  <si>
-    <t>港股通高股息精选</t>
-  </si>
-  <si>
     <t>SHSE.516150</t>
   </si>
   <si>
@@ -767,42 +497,6 @@
     <t>深证100</t>
   </si>
   <si>
-    <t>SHSE.513910</t>
-  </si>
-  <si>
-    <t>华夏中证港股通央企红利ETF</t>
-  </si>
-  <si>
-    <t>港股通央企红利</t>
-  </si>
-  <si>
-    <t>SHSE.588780</t>
-  </si>
-  <si>
-    <t>国联安科创芯片设计ETF</t>
-  </si>
-  <si>
-    <t>科创芯片设计</t>
-  </si>
-  <si>
-    <t>SHSE.588230</t>
-  </si>
-  <si>
-    <t>华泰柏瑞上证科创板200ETF</t>
-  </si>
-  <si>
-    <t>科创板200</t>
-  </si>
-  <si>
-    <t>SZSE.159506</t>
-  </si>
-  <si>
-    <t>富国恒生港股通创新药及医疗保健ETF</t>
-  </si>
-  <si>
-    <t>港股通创新药及医疗保健</t>
-  </si>
-  <si>
     <t>SHSE.513690</t>
   </si>
   <si>
@@ -848,33 +542,6 @@
     <t>钢铁</t>
   </si>
   <si>
-    <t>SZSE.159887</t>
-  </si>
-  <si>
-    <t>富国中证800银行ETF</t>
-  </si>
-  <si>
-    <t>800银行</t>
-  </si>
-  <si>
-    <t>SZSE.159967</t>
-  </si>
-  <si>
-    <t>华夏创成长ETF</t>
-  </si>
-  <si>
-    <t>创成长</t>
-  </si>
-  <si>
-    <t>SHSE.512090</t>
-  </si>
-  <si>
-    <t>易方达MSCI中国A股国际通ETF</t>
-  </si>
-  <si>
-    <t>MSCI中国A股国际通</t>
-  </si>
-  <si>
     <t>SZSE.159731</t>
   </si>
   <si>
@@ -884,42 +551,6 @@
     <t>石化</t>
   </si>
   <si>
-    <t>SZSE.159107</t>
-  </si>
-  <si>
-    <t>富国创业板软件ETF</t>
-  </si>
-  <si>
-    <t>创业板软件</t>
-  </si>
-  <si>
-    <t>SHSE.589000</t>
-  </si>
-  <si>
-    <t>华夏上证科创板综合ETF</t>
-  </si>
-  <si>
-    <t>科创板综合</t>
-  </si>
-  <si>
-    <t>SZSE.159781</t>
-  </si>
-  <si>
-    <t>易方达中证科创创业50ETF</t>
-  </si>
-  <si>
-    <t>科创创业50</t>
-  </si>
-  <si>
-    <t>SHSE.515300</t>
-  </si>
-  <si>
-    <t>嘉实沪深300红利低波动ETF</t>
-  </si>
-  <si>
-    <t>沪深300红利低波动</t>
-  </si>
-  <si>
     <t>SHSE.516510</t>
   </si>
   <si>
@@ -938,51 +569,6 @@
     <t>计算机</t>
   </si>
   <si>
-    <t>SZSE.159366</t>
-  </si>
-  <si>
-    <t>永赢中证港股通医疗主题ETF</t>
-  </si>
-  <si>
-    <t>港股通医疗</t>
-  </si>
-  <si>
-    <t>SZSE.159758</t>
-  </si>
-  <si>
-    <t>华夏中证红利质量ETF</t>
-  </si>
-  <si>
-    <t>红利质量</t>
-  </si>
-  <si>
-    <t>SZSE.159399</t>
-  </si>
-  <si>
-    <t>国泰富时中国A股自由现金流聚焦ETF</t>
-  </si>
-  <si>
-    <t>富时中国A股自由现金流聚焦</t>
-  </si>
-  <si>
-    <t>SHSE.589720</t>
-  </si>
-  <si>
-    <t>国泰上证科创板创新药ETF</t>
-  </si>
-  <si>
-    <t>科创板创新药</t>
-  </si>
-  <si>
-    <t>SHSE.513700</t>
-  </si>
-  <si>
-    <t>鹏华中证港股通医药卫生综合交易ETF</t>
-  </si>
-  <si>
-    <t>港股通医药卫生综合交易</t>
-  </si>
-  <si>
     <t>SHSE.515000</t>
   </si>
   <si>
@@ -1001,42 +587,6 @@
     <t>工程机械</t>
   </si>
   <si>
-    <t>SHSE.513820</t>
-  </si>
-  <si>
-    <t>汇添富中证港股通高股息投资ETF</t>
-  </si>
-  <si>
-    <t>港股通高股息投资</t>
-  </si>
-  <si>
-    <t>SHSE.515450</t>
-  </si>
-  <si>
-    <t>南方标普中国A股大盘红利低波50ETF</t>
-  </si>
-  <si>
-    <t>标普中国A股大盘红利低波50</t>
-  </si>
-  <si>
-    <t>SHSE.561330</t>
-  </si>
-  <si>
-    <t>国泰中证有色金属矿业主题ETF</t>
-  </si>
-  <si>
-    <t>有色金属矿业</t>
-  </si>
-  <si>
-    <t>SHSE.560980</t>
-  </si>
-  <si>
-    <t>广发中证光伏龙头30ETF</t>
-  </si>
-  <si>
-    <t>光伏30</t>
-  </si>
-  <si>
     <t>SZSE.159638</t>
   </si>
   <si>
@@ -1064,24 +614,6 @@
     <t>大数据</t>
   </si>
   <si>
-    <t>SHSE.515100</t>
-  </si>
-  <si>
-    <t>景顺长城中证红利低波动100ETF</t>
-  </si>
-  <si>
-    <t>红利低波动100</t>
-  </si>
-  <si>
-    <t>SHSE.563020</t>
-  </si>
-  <si>
-    <t>易方达中证红利低波动ETF</t>
-  </si>
-  <si>
-    <t>红利低波动</t>
-  </si>
-  <si>
     <t>SHSE.515170</t>
   </si>
   <si>
@@ -1109,15 +641,6 @@
     <t>消费电子</t>
   </si>
   <si>
-    <t>SZSE.159545</t>
-  </si>
-  <si>
-    <t>易方达恒生港股通高股息低波动ETF</t>
-  </si>
-  <si>
-    <t>港股通高股息低波动</t>
-  </si>
-  <si>
     <t>SZSE.159859</t>
   </si>
   <si>
@@ -1127,24 +650,6 @@
     <t>生物医药</t>
   </si>
   <si>
-    <t>SHSE.589070</t>
-  </si>
-  <si>
-    <t>天弘上证科创板芯片设计主题ETF</t>
-  </si>
-  <si>
-    <t>科创板芯片设计</t>
-  </si>
-  <si>
-    <t>SHSE.513200</t>
-  </si>
-  <si>
-    <t>易方达中证港股通医药卫生综合ETF</t>
-  </si>
-  <si>
-    <t>港股通医药卫生综合</t>
-  </si>
-  <si>
     <t>SHSE.515650</t>
   </si>
   <si>
@@ -1163,33 +668,6 @@
     <t>机床</t>
   </si>
   <si>
-    <t>SHSE.513660</t>
-  </si>
-  <si>
-    <t>华夏沪港通恒生ETF</t>
-  </si>
-  <si>
-    <t>沪港通</t>
-  </si>
-  <si>
-    <t>SZSE.159368</t>
-  </si>
-  <si>
-    <t>华夏创业板新能源ETF</t>
-  </si>
-  <si>
-    <t>创业板新能源</t>
-  </si>
-  <si>
-    <t>SHSE.510760</t>
-  </si>
-  <si>
-    <t>国泰上证综合交易ETF</t>
-  </si>
-  <si>
-    <t>综合交易</t>
-  </si>
-  <si>
     <t>SZSE.159259</t>
   </si>
   <si>
@@ -1199,15 +677,6 @@
     <t>成长100</t>
   </si>
   <si>
-    <t>SZSE.159993</t>
-  </si>
-  <si>
-    <t>鹏华国证证券龙头ETF</t>
-  </si>
-  <si>
-    <t>证券</t>
-  </si>
-  <si>
     <t>SHSE.510720</t>
   </si>
   <si>
@@ -1244,24 +713,6 @@
     <t>畜牧养殖</t>
   </si>
   <si>
-    <t>SZSE.159807</t>
-  </si>
-  <si>
-    <t>易方达中证科技50ETF</t>
-  </si>
-  <si>
-    <t>科技50</t>
-  </si>
-  <si>
-    <t>SHSE.510180</t>
-  </si>
-  <si>
-    <t>华安上证180ETF</t>
-  </si>
-  <si>
-    <t>上证180</t>
-  </si>
-  <si>
     <t>SZSE.159378</t>
   </si>
   <si>
@@ -1289,15 +740,6 @@
     <t>价值</t>
   </si>
   <si>
-    <t>SHSE.513550</t>
-  </si>
-  <si>
-    <t>华泰柏瑞中证港股通50ETF</t>
-  </si>
-  <si>
-    <t>港股通50</t>
-  </si>
-  <si>
     <t>SZSE.159825</t>
   </si>
   <si>
@@ -1307,42 +749,6 @@
     <t>农业</t>
   </si>
   <si>
-    <t>SHSE.588020</t>
-  </si>
-  <si>
-    <t>易方达上证科创板成长ETF</t>
-  </si>
-  <si>
-    <t>科创板成长</t>
-  </si>
-  <si>
-    <t>SZSE.159707</t>
-  </si>
-  <si>
-    <t>华宝中证800地产ETF</t>
-  </si>
-  <si>
-    <t>800地产</t>
-  </si>
-  <si>
-    <t>SHSE.561360</t>
-  </si>
-  <si>
-    <t>国泰中证油气产业ETF</t>
-  </si>
-  <si>
-    <t>油气</t>
-  </si>
-  <si>
-    <t>SZSE.159263</t>
-  </si>
-  <si>
-    <t>易方达国证价值100ETF</t>
-  </si>
-  <si>
-    <t>价值100</t>
-  </si>
-  <si>
     <t>SZSE.159697</t>
   </si>
   <si>
@@ -1350,24 +756,6 @@
   </si>
   <si>
     <t>石油天然气</t>
-  </si>
-  <si>
-    <t>SZSE.159323</t>
-  </si>
-  <si>
-    <t>华夏中证港股通汽车产业主题ETF</t>
-  </si>
-  <si>
-    <t>港股通汽车</t>
-  </si>
-  <si>
-    <t>SHSE.560050</t>
-  </si>
-  <si>
-    <t>汇添富MSCI中国A50互联互通ETF</t>
-  </si>
-  <si>
-    <t>MSCI中国A50互联互通</t>
   </si>
   <si>
     <t>SZSE.159625</t>
@@ -2343,20 +1731,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A152" sqref="$A152:$XFD411"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.55714285714286" customWidth="1"/>
-    <col min="2" max="2" width="13.1071428571429" customWidth="1"/>
-    <col min="3" max="3" width="8.22142857142857" customWidth="1"/>
-    <col min="4" max="4" width="33.6642857142857" customWidth="1"/>
-    <col min="5" max="5" width="16.1071428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.2214285714286" customWidth="1"/>
+    <col min="1" max="1" width="4.55555555555556" customWidth="1"/>
+    <col min="2" max="2" width="13.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="8.22222222222222" customWidth="1"/>
+    <col min="4" max="4" width="33.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2478,19 +1866,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>407</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7">
-        <v>513090</v>
+        <v>159206</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="1">
-        <v>5372980162</v>
+        <v>3914546331.945</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -2498,19 +1886,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>324</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8">
-        <v>588000</v>
+        <v>159915</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="1">
-        <v>4304130319</v>
+        <v>3018742908.302</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -2518,19 +1906,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9">
-        <v>159206</v>
+        <v>159516</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="1">
-        <v>3914546331.945</v>
+        <v>2259758441.945</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2538,19 +1926,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10">
-        <v>588200</v>
+        <v>512880</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="1">
-        <v>3507084659</v>
+        <v>2173364060</v>
       </c>
       <c r="F10" t="s">
         <v>31</v>
@@ -2558,19 +1946,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
       <c r="C11">
-        <v>159915</v>
+        <v>515790</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="1">
-        <v>3018742908.302</v>
+        <v>2013211824</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -2578,19 +1966,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12">
-        <v>159516</v>
+        <v>159870</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="1">
-        <v>2259758441.945</v>
+        <v>1826816234.266</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -2598,19 +1986,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>373</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>512880</v>
+        <v>512400</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="1">
-        <v>2173364060</v>
+        <v>1784756989</v>
       </c>
       <c r="F13" t="s">
         <v>40</v>
@@ -2618,19 +2006,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14">
-        <v>515790</v>
+        <v>159326</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="1">
-        <v>2013211824</v>
+        <v>1490547804.728</v>
       </c>
       <c r="F14" t="s">
         <v>43</v>
@@ -2638,19 +2026,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
       <c r="C15">
-        <v>563230</v>
+        <v>512980</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="1">
-        <v>1968912448</v>
+        <v>1487449650</v>
       </c>
       <c r="F15" t="s">
         <v>46</v>
@@ -2658,19 +2046,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
       <c r="C16">
-        <v>159870</v>
+        <v>562500</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="1">
-        <v>1826816234.266</v>
+        <v>1317074655</v>
       </c>
       <c r="F16" t="s">
         <v>49</v>
@@ -2678,19 +2066,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>298</v>
+        <v>123</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
       </c>
       <c r="C17">
-        <v>512400</v>
+        <v>159995</v>
       </c>
       <c r="D17" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="1">
-        <v>1784756989</v>
+        <v>1157948262.152</v>
       </c>
       <c r="F17" t="s">
         <v>52</v>
@@ -2698,19 +2086,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>267</v>
+        <v>385</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18">
-        <v>159792</v>
+        <v>159852</v>
       </c>
       <c r="D18" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="1">
-        <v>1553523021.038</v>
+        <v>1155073578.407</v>
       </c>
       <c r="F18" t="s">
         <v>55</v>
@@ -2718,19 +2106,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19">
-        <v>512480</v>
+        <v>512710</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="1">
-        <v>1500380606</v>
+        <v>1079411157</v>
       </c>
       <c r="F19" t="s">
         <v>58</v>
@@ -2738,19 +2126,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>305</v>
+        <v>390</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
       </c>
       <c r="C20">
-        <v>159326</v>
+        <v>515880</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="1">
-        <v>1490547804.728</v>
+        <v>986367318</v>
       </c>
       <c r="F20" t="s">
         <v>61</v>
@@ -2758,19 +2146,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>71</v>
+        <v>366</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
       </c>
       <c r="C21">
-        <v>512980</v>
+        <v>159227</v>
       </c>
       <c r="D21" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="1">
-        <v>1487449650</v>
+        <v>854792749.142</v>
       </c>
       <c r="F21" t="s">
         <v>64</v>
@@ -2778,19 +2166,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>323</v>
+        <v>398</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
       </c>
       <c r="C22">
-        <v>588080</v>
+        <v>512800</v>
       </c>
       <c r="D22" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="1">
-        <v>1403357870</v>
+        <v>829970100</v>
       </c>
       <c r="F22" t="s">
         <v>67</v>
@@ -2798,19 +2186,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
       </c>
       <c r="C23">
-        <v>588170</v>
+        <v>159851</v>
       </c>
       <c r="D23" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="1">
-        <v>1365688980</v>
+        <v>815745503.86</v>
       </c>
       <c r="F23" t="s">
         <v>70</v>
@@ -2818,19 +2206,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>199</v>
+        <v>365</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
       <c r="C24">
-        <v>562500</v>
+        <v>159201</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
       </c>
       <c r="E24" s="1">
-        <v>1317074655</v>
+        <v>737237085.2</v>
       </c>
       <c r="F24" t="s">
         <v>73</v>
@@ -2838,19 +2226,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
       </c>
       <c r="C25">
-        <v>159570</v>
+        <v>159755</v>
       </c>
       <c r="D25" t="s">
         <v>75</v>
       </c>
       <c r="E25" s="1">
-        <v>1166132718.891</v>
+        <v>724669714.725</v>
       </c>
       <c r="F25" t="s">
         <v>76</v>
@@ -2858,19 +2246,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
       </c>
       <c r="C26">
-        <v>159995</v>
+        <v>512170</v>
       </c>
       <c r="D26" t="s">
         <v>78</v>
       </c>
       <c r="E26" s="1">
-        <v>1157948262.152</v>
+        <v>721716526</v>
       </c>
       <c r="F26" t="s">
         <v>79</v>
@@ -2878,19 +2266,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B27" t="s">
         <v>80</v>
       </c>
       <c r="C27">
-        <v>159852</v>
+        <v>512690</v>
       </c>
       <c r="D27" t="s">
         <v>81</v>
       </c>
       <c r="E27" s="1">
-        <v>1155073578.407</v>
+        <v>719976289</v>
       </c>
       <c r="F27" t="s">
         <v>82</v>
@@ -2898,19 +2286,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s">
         <v>83</v>
       </c>
       <c r="C28">
-        <v>159949</v>
+        <v>517520</v>
       </c>
       <c r="D28" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="1">
-        <v>1082099193.815</v>
+        <v>714750361</v>
       </c>
       <c r="F28" t="s">
         <v>85</v>
@@ -2918,19 +2306,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>86</v>
       </c>
       <c r="C29">
-        <v>512710</v>
+        <v>563300</v>
       </c>
       <c r="D29" t="s">
         <v>87</v>
       </c>
       <c r="E29" s="1">
-        <v>1079411157</v>
+        <v>713653657</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -2938,19 +2326,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
         <v>89</v>
       </c>
       <c r="C30">
-        <v>513750</v>
+        <v>159819</v>
       </c>
       <c r="D30" t="s">
         <v>90</v>
       </c>
       <c r="E30" s="1">
-        <v>1077596599</v>
+        <v>691106465.886</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
@@ -2958,19 +2346,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>390</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
         <v>92</v>
       </c>
       <c r="C31">
-        <v>515880</v>
+        <v>159869</v>
       </c>
       <c r="D31" t="s">
         <v>93</v>
       </c>
       <c r="E31" s="1">
-        <v>986367318</v>
+        <v>686392111.942</v>
       </c>
       <c r="F31" t="s">
         <v>94</v>
@@ -2978,19 +2366,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B32" t="s">
         <v>95</v>
       </c>
       <c r="C32">
-        <v>159227</v>
+        <v>512890</v>
       </c>
       <c r="D32" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="1">
-        <v>854792749.142</v>
+        <v>649624390</v>
       </c>
       <c r="F32" t="s">
         <v>97</v>
@@ -2998,19 +2386,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>398</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
         <v>98</v>
       </c>
       <c r="C33">
-        <v>512800</v>
+        <v>159992</v>
       </c>
       <c r="D33" t="s">
         <v>99</v>
       </c>
       <c r="E33" s="1">
-        <v>829970100</v>
+        <v>635984492.214</v>
       </c>
       <c r="F33" t="s">
         <v>100</v>
@@ -3018,19 +2406,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>395</v>
+        <v>162</v>
       </c>
       <c r="B34" t="s">
         <v>101</v>
       </c>
       <c r="C34">
-        <v>159851</v>
+        <v>560860</v>
       </c>
       <c r="D34" t="s">
         <v>102</v>
       </c>
       <c r="E34" s="1">
-        <v>815745503.86</v>
+        <v>602044824</v>
       </c>
       <c r="F34" t="s">
         <v>103</v>
@@ -3038,19 +2426,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s">
         <v>104</v>
       </c>
       <c r="C35">
-        <v>512070</v>
+        <v>512200</v>
       </c>
       <c r="D35" t="s">
         <v>105</v>
       </c>
       <c r="E35" s="1">
-        <v>813294420</v>
+        <v>592585962</v>
       </c>
       <c r="F35" t="s">
         <v>106</v>
@@ -3058,19 +2446,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>365</v>
+        <v>290</v>
       </c>
       <c r="B36" t="s">
         <v>107</v>
       </c>
       <c r="C36">
-        <v>159201</v>
+        <v>515220</v>
       </c>
       <c r="D36" t="s">
         <v>108</v>
       </c>
       <c r="E36" s="1">
-        <v>737237085.2</v>
+        <v>530032681</v>
       </c>
       <c r="F36" t="s">
         <v>109</v>
@@ -3078,19 +2466,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="B37" t="s">
         <v>110</v>
       </c>
       <c r="C37">
-        <v>512010</v>
+        <v>516160</v>
       </c>
       <c r="D37" t="s">
         <v>111</v>
       </c>
       <c r="E37" s="1">
-        <v>727230686</v>
+        <v>518771309</v>
       </c>
       <c r="F37" t="s">
         <v>112</v>
@@ -3098,19 +2486,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>181</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s">
         <v>113</v>
       </c>
       <c r="C38">
-        <v>159755</v>
+        <v>510880</v>
       </c>
       <c r="D38" t="s">
         <v>114</v>
       </c>
       <c r="E38" s="1">
-        <v>724669714.725</v>
+        <v>494701122</v>
       </c>
       <c r="F38" t="s">
         <v>115</v>
@@ -3118,19 +2506,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s">
         <v>116</v>
       </c>
       <c r="C39">
-        <v>512170</v>
+        <v>516650</v>
       </c>
       <c r="D39" t="s">
         <v>117</v>
       </c>
       <c r="E39" s="1">
-        <v>721716526</v>
+        <v>487559622</v>
       </c>
       <c r="F39" t="s">
         <v>118</v>
@@ -3138,19 +2526,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>392</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
         <v>119</v>
       </c>
       <c r="C40">
-        <v>512690</v>
+        <v>159883</v>
       </c>
       <c r="D40" t="s">
         <v>120</v>
       </c>
       <c r="E40" s="1">
-        <v>719976289</v>
+        <v>458740162.908</v>
       </c>
       <c r="F40" t="s">
         <v>121</v>
@@ -3158,19 +2546,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>222</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s">
         <v>122</v>
       </c>
       <c r="C41">
-        <v>517520</v>
+        <v>562800</v>
       </c>
       <c r="D41" t="s">
         <v>123</v>
       </c>
       <c r="E41" s="1">
-        <v>714750361</v>
+        <v>388122084</v>
       </c>
       <c r="F41" t="s">
         <v>124</v>
@@ -3178,19 +2566,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
         <v>125</v>
       </c>
       <c r="C42">
-        <v>563300</v>
+        <v>159928</v>
       </c>
       <c r="D42" t="s">
         <v>126</v>
       </c>
       <c r="E42" s="1">
-        <v>713653657</v>
+        <v>376936876.294</v>
       </c>
       <c r="F42" t="s">
         <v>127</v>
@@ -3198,19 +2586,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s">
         <v>128</v>
       </c>
       <c r="C43">
-        <v>159819</v>
+        <v>512670</v>
       </c>
       <c r="D43" t="s">
         <v>129</v>
       </c>
       <c r="E43" s="1">
-        <v>691106465.886</v>
+        <v>366030611</v>
       </c>
       <c r="F43" t="s">
         <v>130</v>
@@ -3218,19 +2606,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s">
         <v>131</v>
       </c>
       <c r="C44">
-        <v>159869</v>
+        <v>159796</v>
       </c>
       <c r="D44" t="s">
         <v>132</v>
       </c>
       <c r="E44" s="1">
-        <v>686392111.942</v>
+        <v>332005032.074</v>
       </c>
       <c r="F44" t="s">
         <v>133</v>
@@ -3238,19 +2626,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s">
         <v>134</v>
       </c>
       <c r="C45">
-        <v>512890</v>
+        <v>510210</v>
       </c>
       <c r="D45" t="s">
         <v>135</v>
       </c>
       <c r="E45" s="1">
-        <v>649624390</v>
+        <v>326697659</v>
       </c>
       <c r="F45" t="s">
         <v>136</v>
@@ -3258,19 +2646,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s">
         <v>137</v>
       </c>
       <c r="C46">
-        <v>159992</v>
+        <v>159566</v>
       </c>
       <c r="D46" t="s">
         <v>138</v>
       </c>
       <c r="E46" s="1">
-        <v>635984492.214</v>
+        <v>294182480.233</v>
       </c>
       <c r="F46" t="s">
         <v>139</v>
@@ -3278,19 +2666,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>321</v>
+        <v>182</v>
       </c>
       <c r="B47" t="s">
         <v>140</v>
       </c>
       <c r="C47">
-        <v>588220</v>
+        <v>159766</v>
       </c>
       <c r="D47" t="s">
         <v>141</v>
       </c>
       <c r="E47" s="1">
-        <v>630969181</v>
+        <v>283382954.7</v>
       </c>
       <c r="F47" t="s">
         <v>142</v>
@@ -3298,19 +2686,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
         <v>143</v>
       </c>
       <c r="C48">
-        <v>560860</v>
+        <v>515030</v>
       </c>
       <c r="D48" t="s">
         <v>144</v>
       </c>
       <c r="E48" s="1">
-        <v>602044824</v>
+        <v>268516783</v>
       </c>
       <c r="F48" t="s">
         <v>145</v>
@@ -3318,19 +2706,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>172</v>
+        <v>345</v>
       </c>
       <c r="B49" t="s">
         <v>146</v>
       </c>
       <c r="C49">
-        <v>512200</v>
+        <v>516150</v>
       </c>
       <c r="D49" t="s">
         <v>147</v>
       </c>
       <c r="E49" s="1">
-        <v>592585962</v>
+        <v>253812189</v>
       </c>
       <c r="F49" t="s">
         <v>148</v>
@@ -3338,19 +2726,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>383</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
         <v>149</v>
       </c>
       <c r="C50">
-        <v>515230</v>
+        <v>516520</v>
       </c>
       <c r="D50" t="s">
         <v>150</v>
       </c>
       <c r="E50" s="1">
-        <v>591126976</v>
+        <v>247719249</v>
       </c>
       <c r="F50" t="s">
         <v>151</v>
@@ -3358,19 +2746,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="B51" t="s">
         <v>152</v>
       </c>
       <c r="C51">
-        <v>159363</v>
+        <v>159901</v>
       </c>
       <c r="D51" t="s">
         <v>153</v>
       </c>
       <c r="E51" s="1">
-        <v>575086153.719</v>
+        <v>245288858.66</v>
       </c>
       <c r="F51" t="s">
         <v>154</v>
@@ -3378,19 +2766,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>282</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s">
         <v>155</v>
       </c>
       <c r="C52">
-        <v>159636</v>
+        <v>513690</v>
       </c>
       <c r="D52" t="s">
         <v>156</v>
       </c>
       <c r="E52" s="1">
-        <v>535346111.7</v>
+        <v>227208367</v>
       </c>
       <c r="F52" t="s">
         <v>157</v>
@@ -3398,19 +2786,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
         <v>158</v>
       </c>
       <c r="C53">
-        <v>515220</v>
+        <v>515050</v>
       </c>
       <c r="D53" t="s">
         <v>159</v>
       </c>
       <c r="E53" s="1">
-        <v>530032681</v>
+        <v>220154833</v>
       </c>
       <c r="F53" t="s">
         <v>160</v>
@@ -3418,19 +2806,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B54" t="s">
         <v>161</v>
       </c>
       <c r="C54">
-        <v>516160</v>
+        <v>159745</v>
       </c>
       <c r="D54" t="s">
         <v>162</v>
       </c>
       <c r="E54" s="1">
-        <v>518771309</v>
+        <v>220023131.432</v>
       </c>
       <c r="F54" t="s">
         <v>163</v>
@@ -3438,19 +2826,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="B55" t="s">
         <v>164</v>
       </c>
       <c r="C55">
-        <v>510880</v>
+        <v>159611</v>
       </c>
       <c r="D55" t="s">
         <v>165</v>
       </c>
       <c r="E55" s="1">
-        <v>494701122</v>
+        <v>218580685.963</v>
       </c>
       <c r="F55" t="s">
         <v>166</v>
@@ -3458,19 +2846,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s">
         <v>167</v>
       </c>
       <c r="C56">
-        <v>516650</v>
+        <v>515210</v>
       </c>
       <c r="D56" t="s">
         <v>168</v>
       </c>
       <c r="E56" s="1">
-        <v>487559622</v>
+        <v>216076026</v>
       </c>
       <c r="F56" t="s">
         <v>169</v>
@@ -3478,19 +2866,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="B57" t="s">
         <v>170</v>
       </c>
       <c r="C57">
-        <v>513630</v>
+        <v>159731</v>
       </c>
       <c r="D57" t="s">
         <v>171</v>
       </c>
       <c r="E57" s="1">
-        <v>481833947</v>
+        <v>195071502.635</v>
       </c>
       <c r="F57" t="s">
         <v>172</v>
@@ -3498,19 +2886,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
         <v>173</v>
       </c>
       <c r="C58">
-        <v>159883</v>
+        <v>516510</v>
       </c>
       <c r="D58" t="s">
         <v>174</v>
       </c>
       <c r="E58" s="1">
-        <v>458740162.908</v>
+        <v>165950479</v>
       </c>
       <c r="F58" t="s">
         <v>175</v>
@@ -3518,19 +2906,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="B59" t="s">
         <v>176</v>
       </c>
       <c r="C59">
-        <v>513920</v>
+        <v>159998</v>
       </c>
       <c r="D59" t="s">
         <v>177</v>
       </c>
       <c r="E59" s="1">
-        <v>457159336</v>
+        <v>163866440.455</v>
       </c>
       <c r="F59" t="s">
         <v>178</v>
@@ -3538,19 +2926,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="B60" t="s">
         <v>179</v>
       </c>
       <c r="C60">
-        <v>520980</v>
+        <v>515000</v>
       </c>
       <c r="D60" t="s">
         <v>180</v>
       </c>
       <c r="E60" s="1">
-        <v>455004171</v>
+        <v>143739066</v>
       </c>
       <c r="F60" t="s">
         <v>181</v>
@@ -3558,19 +2946,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>281</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s">
         <v>182</v>
       </c>
       <c r="C61">
-        <v>513980</v>
+        <v>560280</v>
       </c>
       <c r="D61" t="s">
         <v>183</v>
       </c>
       <c r="E61" s="1">
-        <v>420010422</v>
+        <v>143039460</v>
       </c>
       <c r="F61" t="s">
         <v>184</v>
@@ -3578,19 +2966,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>325</v>
+        <v>408</v>
       </c>
       <c r="B62" t="s">
         <v>185</v>
       </c>
       <c r="C62">
-        <v>588790</v>
+        <v>159638</v>
       </c>
       <c r="D62" t="s">
         <v>186</v>
       </c>
       <c r="E62" s="1">
-        <v>402150881</v>
+        <v>131882480.429</v>
       </c>
       <c r="F62" t="s">
         <v>187</v>
@@ -3598,19 +2986,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>346</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
         <v>188</v>
       </c>
       <c r="C63">
-        <v>562800</v>
+        <v>159595</v>
       </c>
       <c r="D63" t="s">
         <v>189</v>
       </c>
       <c r="E63" s="1">
-        <v>388122084</v>
+        <v>127370683.849</v>
       </c>
       <c r="F63" t="s">
         <v>190</v>
@@ -3618,19 +3006,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="B64" t="s">
         <v>191</v>
       </c>
       <c r="C64">
-        <v>159928</v>
+        <v>515400</v>
       </c>
       <c r="D64" t="s">
         <v>192</v>
       </c>
       <c r="E64" s="1">
-        <v>376936876.294</v>
+        <v>125323162</v>
       </c>
       <c r="F64" t="s">
         <v>193</v>
@@ -3638,19 +3026,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>140</v>
+        <v>405</v>
       </c>
       <c r="B65" t="s">
         <v>194</v>
       </c>
       <c r="C65">
-        <v>512670</v>
+        <v>515170</v>
       </c>
       <c r="D65" t="s">
         <v>195</v>
       </c>
       <c r="E65" s="1">
-        <v>366030611</v>
+        <v>122185499</v>
       </c>
       <c r="F65" t="s">
         <v>196</v>
@@ -3658,19 +3046,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>270</v>
+        <v>368</v>
       </c>
       <c r="B66" t="s">
         <v>197</v>
       </c>
       <c r="C66">
-        <v>513190</v>
+        <v>159599</v>
       </c>
       <c r="D66" t="s">
         <v>198</v>
       </c>
       <c r="E66" s="1">
-        <v>347782166</v>
+        <v>121376701.7</v>
       </c>
       <c r="F66" t="s">
         <v>199</v>
@@ -3678,19 +3066,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="B67" t="s">
         <v>200</v>
       </c>
       <c r="C67">
-        <v>520880</v>
+        <v>159732</v>
       </c>
       <c r="D67" t="s">
         <v>201</v>
       </c>
       <c r="E67" s="1">
-        <v>347619116</v>
+        <v>118157742.862</v>
       </c>
       <c r="F67" t="s">
         <v>202</v>
@@ -3698,19 +3086,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="B68" t="s">
         <v>203</v>
       </c>
       <c r="C68">
-        <v>512760</v>
+        <v>159859</v>
       </c>
       <c r="D68" t="s">
         <v>204</v>
       </c>
       <c r="E68" s="1">
-        <v>345742156</v>
+        <v>113769518.518</v>
       </c>
       <c r="F68" t="s">
         <v>205</v>
@@ -3718,19 +3106,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="B69" t="s">
         <v>206</v>
       </c>
       <c r="C69">
-        <v>588830</v>
+        <v>515650</v>
       </c>
       <c r="D69" t="s">
         <v>207</v>
       </c>
       <c r="E69" s="1">
-        <v>338571588</v>
+        <v>105207073</v>
       </c>
       <c r="F69" t="s">
         <v>208</v>
@@ -3738,19 +3126,19 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>304</v>
+        <v>200</v>
       </c>
       <c r="B70" t="s">
         <v>209</v>
       </c>
       <c r="C70">
-        <v>159796</v>
+        <v>159667</v>
       </c>
       <c r="D70" t="s">
         <v>210</v>
       </c>
       <c r="E70" s="1">
-        <v>332005032.074</v>
+        <v>103840270.3</v>
       </c>
       <c r="F70" t="s">
         <v>211</v>
@@ -3758,19 +3146,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>360</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
         <v>212</v>
       </c>
       <c r="C71">
-        <v>510210</v>
+        <v>159259</v>
       </c>
       <c r="D71" t="s">
         <v>213</v>
       </c>
       <c r="E71" s="1">
-        <v>326697659</v>
+        <v>94025668.295</v>
       </c>
       <c r="F71" t="s">
         <v>214</v>
@@ -3778,19 +3166,19 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>367</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
         <v>215</v>
       </c>
       <c r="C72">
-        <v>563380</v>
+        <v>510720</v>
       </c>
       <c r="D72" t="s">
         <v>216</v>
       </c>
       <c r="E72" s="1">
-        <v>312031222</v>
+        <v>88998567</v>
       </c>
       <c r="F72" t="s">
         <v>217</v>
@@ -3798,19 +3186,19 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
         <v>218</v>
       </c>
       <c r="C73">
-        <v>159566</v>
+        <v>159790</v>
       </c>
       <c r="D73" t="s">
         <v>219</v>
       </c>
       <c r="E73" s="1">
-        <v>294182480.233</v>
+        <v>88483585.225</v>
       </c>
       <c r="F73" t="s">
         <v>220</v>
@@ -3818,19 +3206,19 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="B74" t="s">
         <v>221</v>
       </c>
       <c r="C74">
-        <v>159766</v>
+        <v>159929</v>
       </c>
       <c r="D74" t="s">
         <v>222</v>
       </c>
       <c r="E74" s="1">
-        <v>283382954.7</v>
+        <v>86499776.9</v>
       </c>
       <c r="F74" t="s">
         <v>223</v>
@@ -3838,19 +3226,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="B75" t="s">
         <v>224</v>
       </c>
       <c r="C75">
-        <v>561380</v>
+        <v>159865</v>
       </c>
       <c r="D75" t="s">
         <v>225</v>
       </c>
       <c r="E75" s="1">
-        <v>270867997</v>
+        <v>83414301.596</v>
       </c>
       <c r="F75" t="s">
         <v>226</v>
@@ -3858,19 +3246,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>136</v>
+        <v>391</v>
       </c>
       <c r="B76" t="s">
         <v>227</v>
       </c>
       <c r="C76">
-        <v>520990</v>
+        <v>159378</v>
       </c>
       <c r="D76" t="s">
         <v>228</v>
       </c>
       <c r="E76" s="1">
-        <v>269042512</v>
+        <v>79604005.766</v>
       </c>
       <c r="F76" t="s">
         <v>229</v>
@@ -3878,19 +3266,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="B77" t="s">
         <v>230</v>
       </c>
       <c r="C77">
-        <v>515030</v>
+        <v>515800</v>
       </c>
       <c r="D77" t="s">
         <v>231</v>
       </c>
       <c r="E77" s="1">
-        <v>268516783</v>
+        <v>78396293</v>
       </c>
       <c r="F77" t="s">
         <v>232</v>
@@ -3898,19 +3286,19 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>287</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
         <v>233</v>
       </c>
       <c r="C78">
-        <v>159691</v>
+        <v>512040</v>
       </c>
       <c r="D78" t="s">
         <v>234</v>
       </c>
       <c r="E78" s="1">
-        <v>265350434.6</v>
+        <v>76704894</v>
       </c>
       <c r="F78" t="s">
         <v>235</v>
@@ -3918,19 +3306,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>345</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
         <v>236</v>
       </c>
       <c r="C79">
-        <v>516150</v>
+        <v>159825</v>
       </c>
       <c r="D79" t="s">
         <v>237</v>
       </c>
       <c r="E79" s="1">
-        <v>253812189</v>
+        <v>74878819.089</v>
       </c>
       <c r="F79" t="s">
         <v>238</v>
@@ -3938,19 +3326,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>184</v>
+        <v>310</v>
       </c>
       <c r="B80" t="s">
         <v>239</v>
       </c>
       <c r="C80">
-        <v>516520</v>
+        <v>159697</v>
       </c>
       <c r="D80" t="s">
         <v>240</v>
       </c>
       <c r="E80" s="1">
-        <v>247719249</v>
+        <v>69414400.9</v>
       </c>
       <c r="F80" t="s">
         <v>241</v>
@@ -3958,19 +3346,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>248</v>
+        <v>361</v>
       </c>
       <c r="B81" t="s">
         <v>242</v>
       </c>
       <c r="C81">
-        <v>159901</v>
+        <v>159625</v>
       </c>
       <c r="D81" t="s">
         <v>243</v>
       </c>
       <c r="E81" s="1">
-        <v>245288858.66</v>
+        <v>67985809.4</v>
       </c>
       <c r="F81" t="s">
         <v>244</v>
@@ -3978,19 +3366,19 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="B82" t="s">
         <v>245</v>
       </c>
       <c r="C82">
-        <v>513910</v>
+        <v>159930</v>
       </c>
       <c r="D82" t="s">
         <v>246</v>
       </c>
       <c r="E82" s="1">
-        <v>243178572</v>
+        <v>64458483</v>
       </c>
       <c r="F82" t="s">
         <v>247</v>
@@ -3998,1386 +3386,29 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="B83" t="s">
         <v>248</v>
       </c>
       <c r="C83">
-        <v>588780</v>
+        <v>159105</v>
       </c>
       <c r="D83" t="s">
         <v>249</v>
       </c>
       <c r="E83" s="1">
-        <v>238860395</v>
+        <v>64378434.985</v>
       </c>
       <c r="F83" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>322</v>
-      </c>
-      <c r="B84" t="s">
-        <v>251</v>
-      </c>
-      <c r="C84">
-        <v>588230</v>
-      </c>
-      <c r="D84" t="s">
-        <v>252</v>
-      </c>
-      <c r="E84" s="1">
-        <v>234922691</v>
-      </c>
-      <c r="F84" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>272</v>
-      </c>
-      <c r="B85" t="s">
-        <v>254</v>
-      </c>
-      <c r="C85">
-        <v>159506</v>
-      </c>
-      <c r="D85" t="s">
-        <v>255</v>
-      </c>
-      <c r="E85" s="1">
-        <v>229536716.9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>409</v>
-      </c>
-      <c r="B86" t="s">
-        <v>257</v>
-      </c>
-      <c r="C86">
-        <v>513690</v>
-      </c>
-      <c r="D86" t="s">
-        <v>258</v>
-      </c>
-      <c r="E86" s="1">
-        <v>227208367</v>
-      </c>
-      <c r="F86" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>21</v>
-      </c>
-      <c r="B87" t="s">
-        <v>260</v>
-      </c>
-      <c r="C87">
-        <v>515050</v>
-      </c>
-      <c r="D87" t="s">
-        <v>261</v>
-      </c>
-      <c r="E87" s="1">
-        <v>220154833</v>
-      </c>
-      <c r="F87" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>166</v>
-      </c>
-      <c r="B88" t="s">
-        <v>263</v>
-      </c>
-      <c r="C88">
-        <v>159745</v>
-      </c>
-      <c r="D88" t="s">
-        <v>264</v>
-      </c>
-      <c r="E88" s="1">
-        <v>220023131.432</v>
-      </c>
-      <c r="F88" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>301</v>
-      </c>
-      <c r="B89" t="s">
-        <v>266</v>
-      </c>
-      <c r="C89">
-        <v>159611</v>
-      </c>
-      <c r="D89" t="s">
-        <v>267</v>
-      </c>
-      <c r="E89" s="1">
-        <v>218580685.963</v>
-      </c>
-      <c r="F89" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>397</v>
-      </c>
-      <c r="B90" t="s">
-        <v>269</v>
-      </c>
-      <c r="C90">
-        <v>515210</v>
-      </c>
-      <c r="D90" t="s">
-        <v>270</v>
-      </c>
-      <c r="E90" s="1">
-        <v>216076026</v>
-      </c>
-      <c r="F90" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>29</v>
-      </c>
-      <c r="B91" t="s">
-        <v>272</v>
-      </c>
-      <c r="C91">
-        <v>159887</v>
-      </c>
-      <c r="D91" t="s">
-        <v>273</v>
-      </c>
-      <c r="E91" s="1">
-        <v>202688701.084</v>
-      </c>
-      <c r="F91" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>104</v>
-      </c>
-      <c r="B92" t="s">
-        <v>275</v>
-      </c>
-      <c r="C92">
-        <v>159967</v>
-      </c>
-      <c r="D92" t="s">
-        <v>276</v>
-      </c>
-      <c r="E92" s="1">
-        <v>201292294.489</v>
-      </c>
-      <c r="F92" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>50</v>
-      </c>
-      <c r="B93" t="s">
-        <v>278</v>
-      </c>
-      <c r="C93">
-        <v>512090</v>
-      </c>
-      <c r="D93" t="s">
-        <v>279</v>
-      </c>
-      <c r="E93" s="1">
-        <v>196145740</v>
-      </c>
-      <c r="F93" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>309</v>
-      </c>
-      <c r="B94" t="s">
-        <v>281</v>
-      </c>
-      <c r="C94">
-        <v>159731</v>
-      </c>
-      <c r="D94" t="s">
-        <v>282</v>
-      </c>
-      <c r="E94" s="1">
-        <v>195071502.635</v>
-      </c>
-      <c r="F94" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>103</v>
-      </c>
-      <c r="B95" t="s">
-        <v>284</v>
-      </c>
-      <c r="C95">
-        <v>159107</v>
-      </c>
-      <c r="D95" t="s">
-        <v>285</v>
-      </c>
-      <c r="E95" s="1">
-        <v>188151391.686</v>
-      </c>
-      <c r="F95" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>334</v>
-      </c>
-      <c r="B96" t="s">
-        <v>287</v>
-      </c>
-      <c r="C96">
-        <v>589000</v>
-      </c>
-      <c r="D96" t="s">
-        <v>288</v>
-      </c>
-      <c r="E96" s="1">
-        <v>183856309</v>
-      </c>
-      <c r="F96" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>319</v>
-      </c>
-      <c r="B97" t="s">
-        <v>290</v>
-      </c>
-      <c r="C97">
-        <v>159781</v>
-      </c>
-      <c r="D97" t="s">
-        <v>291</v>
-      </c>
-      <c r="E97" s="1">
-        <v>177957941.069</v>
-      </c>
-      <c r="F97" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>216</v>
-      </c>
-      <c r="B98" t="s">
-        <v>293</v>
-      </c>
-      <c r="C98">
-        <v>515300</v>
-      </c>
-      <c r="D98" t="s">
-        <v>294</v>
-      </c>
-      <c r="E98" s="1">
-        <v>166268079</v>
-      </c>
-      <c r="F98" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>65</v>
-      </c>
-      <c r="B99" t="s">
-        <v>296</v>
-      </c>
-      <c r="C99">
-        <v>516510</v>
-      </c>
-      <c r="D99" t="s">
-        <v>297</v>
-      </c>
-      <c r="E99" s="1">
-        <v>165950479</v>
-      </c>
-      <c r="F99" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>371</v>
-      </c>
-      <c r="B100" t="s">
-        <v>299</v>
-      </c>
-      <c r="C100">
-        <v>159998</v>
-      </c>
-      <c r="D100" t="s">
-        <v>300</v>
-      </c>
-      <c r="E100" s="1">
-        <v>163866440.455</v>
-      </c>
-      <c r="F100" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>274</v>
-      </c>
-      <c r="B101" t="s">
-        <v>302</v>
-      </c>
-      <c r="C101">
-        <v>159366</v>
-      </c>
-      <c r="D101" t="s">
-        <v>303</v>
-      </c>
-      <c r="E101" s="1">
-        <v>160820245.8</v>
-      </c>
-      <c r="F101" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>356</v>
-      </c>
-      <c r="B102" t="s">
-        <v>305</v>
-      </c>
-      <c r="C102">
-        <v>159758</v>
-      </c>
-      <c r="D102" t="s">
-        <v>306</v>
-      </c>
-      <c r="E102" s="1">
-        <v>151906225.3</v>
-      </c>
-      <c r="F102" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>157</v>
-      </c>
-      <c r="B103" t="s">
-        <v>308</v>
-      </c>
-      <c r="C103">
-        <v>159399</v>
-      </c>
-      <c r="D103" t="s">
-        <v>309</v>
-      </c>
-      <c r="E103" s="1">
-        <v>151616671.895</v>
-      </c>
-      <c r="F103" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>326</v>
-      </c>
-      <c r="B104" t="s">
-        <v>311</v>
-      </c>
-      <c r="C104">
-        <v>589720</v>
-      </c>
-      <c r="D104" t="s">
-        <v>312</v>
-      </c>
-      <c r="E104" s="1">
-        <v>145137553</v>
-      </c>
-      <c r="F104" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>276</v>
-      </c>
-      <c r="B105" t="s">
-        <v>314</v>
-      </c>
-      <c r="C105">
-        <v>513700</v>
-      </c>
-      <c r="D105" t="s">
-        <v>315</v>
-      </c>
-      <c r="E105" s="1">
-        <v>144421564</v>
-      </c>
-      <c r="F105" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>340</v>
-      </c>
-      <c r="B106" t="s">
-        <v>317</v>
-      </c>
-      <c r="C106">
-        <v>515000</v>
-      </c>
-      <c r="D106" t="s">
-        <v>318</v>
-      </c>
-      <c r="E106" s="1">
-        <v>143739066</v>
-      </c>
-      <c r="F106" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>164</v>
-      </c>
-      <c r="B107" t="s">
-        <v>320</v>
-      </c>
-      <c r="C107">
-        <v>560280</v>
-      </c>
-      <c r="D107" t="s">
-        <v>321</v>
-      </c>
-      <c r="E107" s="1">
-        <v>143039460</v>
-      </c>
-      <c r="F107" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>286</v>
-      </c>
-      <c r="B108" t="s">
-        <v>323</v>
-      </c>
-      <c r="C108">
-        <v>513820</v>
-      </c>
-      <c r="D108" t="s">
-        <v>324</v>
-      </c>
-      <c r="E108" s="1">
-        <v>138192221</v>
-      </c>
-      <c r="F108" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>203</v>
-      </c>
-      <c r="B109" t="s">
-        <v>326</v>
-      </c>
-      <c r="C109">
-        <v>515450</v>
-      </c>
-      <c r="D109" t="s">
-        <v>327</v>
-      </c>
-      <c r="E109" s="1">
-        <v>137953179</v>
-      </c>
-      <c r="F109" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>198</v>
-      </c>
-      <c r="B110" t="s">
-        <v>329</v>
-      </c>
-      <c r="C110">
-        <v>561330</v>
-      </c>
-      <c r="D110" t="s">
-        <v>330</v>
-      </c>
-      <c r="E110" s="1">
-        <v>136822666</v>
-      </c>
-      <c r="F110" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>78</v>
-      </c>
-      <c r="B111" t="s">
-        <v>332</v>
-      </c>
-      <c r="C111">
-        <v>560980</v>
-      </c>
-      <c r="D111" t="s">
-        <v>333</v>
-      </c>
-      <c r="E111" s="1">
-        <v>136734330</v>
-      </c>
-      <c r="F111" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>408</v>
-      </c>
-      <c r="B112" t="s">
-        <v>335</v>
-      </c>
-      <c r="C112">
-        <v>159638</v>
-      </c>
-      <c r="D112" t="s">
-        <v>336</v>
-      </c>
-      <c r="E112" s="1">
-        <v>131882480.429</v>
-      </c>
-      <c r="F112" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>31</v>
-      </c>
-      <c r="B113" t="s">
-        <v>338</v>
-      </c>
-      <c r="C113">
-        <v>159595</v>
-      </c>
-      <c r="D113" t="s">
-        <v>339</v>
-      </c>
-      <c r="E113" s="1">
-        <v>127370683.849</v>
-      </c>
-      <c r="F113" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>145</v>
-      </c>
-      <c r="B114" t="s">
-        <v>341</v>
-      </c>
-      <c r="C114">
-        <v>515400</v>
-      </c>
-      <c r="D114" t="s">
-        <v>342</v>
-      </c>
-      <c r="E114" s="1">
-        <v>125323162</v>
-      </c>
-      <c r="F114" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>355</v>
-      </c>
-      <c r="B115" t="s">
-        <v>344</v>
-      </c>
-      <c r="C115">
-        <v>515100</v>
-      </c>
-      <c r="D115" t="s">
-        <v>345</v>
-      </c>
-      <c r="E115" s="1">
-        <v>125260003</v>
-      </c>
-      <c r="F115" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>354</v>
-      </c>
-      <c r="B116" t="s">
-        <v>347</v>
-      </c>
-      <c r="C116">
-        <v>563020</v>
-      </c>
-      <c r="D116" t="s">
-        <v>348</v>
-      </c>
-      <c r="E116" s="1">
-        <v>122810820</v>
-      </c>
-      <c r="F116" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>405</v>
-      </c>
-      <c r="B117" t="s">
-        <v>350</v>
-      </c>
-      <c r="C117">
-        <v>515170</v>
-      </c>
-      <c r="D117" t="s">
-        <v>351</v>
-      </c>
-      <c r="E117" s="1">
-        <v>122185499</v>
-      </c>
-      <c r="F117" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>368</v>
-      </c>
-      <c r="B118" t="s">
-        <v>353</v>
-      </c>
-      <c r="C118">
-        <v>159599</v>
-      </c>
-      <c r="D118" t="s">
-        <v>354</v>
-      </c>
-      <c r="E118" s="1">
-        <v>121376701.7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>247</v>
-      </c>
-      <c r="B119" t="s">
-        <v>356</v>
-      </c>
-      <c r="C119">
-        <v>159732</v>
-      </c>
-      <c r="D119" t="s">
-        <v>357</v>
-      </c>
-      <c r="E119" s="1">
-        <v>118157742.862</v>
-      </c>
-      <c r="F119" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>285</v>
-      </c>
-      <c r="B120" t="s">
-        <v>359</v>
-      </c>
-      <c r="C120">
-        <v>159545</v>
-      </c>
-      <c r="D120" t="s">
-        <v>360</v>
-      </c>
-      <c r="E120" s="1">
-        <v>114236866.2</v>
-      </c>
-      <c r="F120" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>296</v>
-      </c>
-      <c r="B121" t="s">
-        <v>362</v>
-      </c>
-      <c r="C121">
-        <v>159859</v>
-      </c>
-      <c r="D121" t="s">
-        <v>363</v>
-      </c>
-      <c r="E121" s="1">
-        <v>113769518.518</v>
-      </c>
-      <c r="F121" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>337</v>
-      </c>
-      <c r="B122" t="s">
-        <v>365</v>
-      </c>
-      <c r="C122">
-        <v>589070</v>
-      </c>
-      <c r="D122" t="s">
-        <v>366</v>
-      </c>
-      <c r="E122" s="1">
-        <v>112262082</v>
-      </c>
-      <c r="F122" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>275</v>
-      </c>
-      <c r="B123" t="s">
-        <v>368</v>
-      </c>
-      <c r="C123">
-        <v>513200</v>
-      </c>
-      <c r="D123" t="s">
-        <v>369</v>
-      </c>
-      <c r="E123" s="1">
-        <v>112051479</v>
-      </c>
-      <c r="F123" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>244</v>
-      </c>
-      <c r="B124" t="s">
-        <v>371</v>
-      </c>
-      <c r="C124">
-        <v>515650</v>
-      </c>
-      <c r="D124" t="s">
-        <v>372</v>
-      </c>
-      <c r="E124" s="1">
-        <v>105207073</v>
-      </c>
-      <c r="F124" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>200</v>
-      </c>
-      <c r="B125" t="s">
-        <v>374</v>
-      </c>
-      <c r="C125">
-        <v>159667</v>
-      </c>
-      <c r="D125" t="s">
-        <v>375</v>
-      </c>
-      <c r="E125" s="1">
-        <v>103840270.3</v>
-      </c>
-      <c r="F125" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>239</v>
-      </c>
-      <c r="B126" t="s">
-        <v>377</v>
-      </c>
-      <c r="C126">
-        <v>513660</v>
-      </c>
-      <c r="D126" t="s">
-        <v>378</v>
-      </c>
-      <c r="E126" s="1">
-        <v>101838666</v>
-      </c>
-      <c r="F126" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>99</v>
-      </c>
-      <c r="B127" t="s">
-        <v>380</v>
-      </c>
-      <c r="C127">
-        <v>159368</v>
-      </c>
-      <c r="D127" t="s">
-        <v>381</v>
-      </c>
-      <c r="E127" s="1">
-        <v>98622488.3</v>
-      </c>
-      <c r="F127" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>359</v>
-      </c>
-      <c r="B128" t="s">
-        <v>383</v>
-      </c>
-      <c r="C128">
-        <v>510760</v>
-      </c>
-      <c r="D128" t="s">
-        <v>384</v>
-      </c>
-      <c r="E128" s="1">
-        <v>95916969</v>
-      </c>
-      <c r="F128" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>170</v>
-      </c>
-      <c r="B129" t="s">
-        <v>386</v>
-      </c>
-      <c r="C129">
-        <v>159259</v>
-      </c>
-      <c r="D129" t="s">
-        <v>387</v>
-      </c>
-      <c r="E129" s="1">
-        <v>94025668.295</v>
-      </c>
-      <c r="F129" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>372</v>
-      </c>
-      <c r="B130" t="s">
-        <v>389</v>
-      </c>
-      <c r="C130">
-        <v>159993</v>
-      </c>
-      <c r="D130" t="s">
-        <v>390</v>
-      </c>
-      <c r="E130" s="1">
-        <v>91069231.423</v>
-      </c>
-      <c r="F130" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>138</v>
-      </c>
-      <c r="B131" t="s">
-        <v>392</v>
-      </c>
-      <c r="C131">
-        <v>510720</v>
-      </c>
-      <c r="D131" t="s">
-        <v>393</v>
-      </c>
-      <c r="E131" s="1">
-        <v>88998567</v>
-      </c>
-      <c r="F131" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>82</v>
-      </c>
-      <c r="B132" t="s">
-        <v>395</v>
-      </c>
-      <c r="C132">
-        <v>159790</v>
-      </c>
-      <c r="D132" t="s">
-        <v>396</v>
-      </c>
-      <c r="E132" s="1">
-        <v>88483585.225</v>
-      </c>
-      <c r="F132" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>118</v>
-      </c>
-      <c r="B133" t="s">
-        <v>398</v>
-      </c>
-      <c r="C133">
-        <v>159929</v>
-      </c>
-      <c r="D133" t="s">
-        <v>399</v>
-      </c>
-      <c r="E133" s="1">
-        <v>86499776.9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>306</v>
-      </c>
-      <c r="B134" t="s">
-        <v>401</v>
-      </c>
-      <c r="C134">
-        <v>159865</v>
-      </c>
-      <c r="D134" t="s">
-        <v>402</v>
-      </c>
-      <c r="E134" s="1">
-        <v>83414301.596</v>
-      </c>
-      <c r="F134" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>342</v>
-      </c>
-      <c r="B135" t="s">
-        <v>404</v>
-      </c>
-      <c r="C135">
-        <v>159807</v>
-      </c>
-      <c r="D135" t="s">
-        <v>405</v>
-      </c>
-      <c r="E135" s="1">
-        <v>82014737.579</v>
-      </c>
-      <c r="F135" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>3</v>
-      </c>
-      <c r="B136" t="s">
-        <v>407</v>
-      </c>
-      <c r="C136">
-        <v>510180</v>
-      </c>
-      <c r="D136" t="s">
-        <v>408</v>
-      </c>
-      <c r="E136" s="1">
-        <v>80361419</v>
-      </c>
-      <c r="F136" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>391</v>
-      </c>
-      <c r="B137" t="s">
-        <v>410</v>
-      </c>
-      <c r="C137">
-        <v>159378</v>
-      </c>
-      <c r="D137" t="s">
-        <v>411</v>
-      </c>
-      <c r="E137" s="1">
-        <v>79604005.766</v>
-      </c>
-      <c r="F137" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>22</v>
-      </c>
-      <c r="B138" t="s">
-        <v>413</v>
-      </c>
-      <c r="C138">
-        <v>515800</v>
-      </c>
-      <c r="D138" t="s">
-        <v>414</v>
-      </c>
-      <c r="E138" s="1">
-        <v>78396293</v>
-      </c>
-      <c r="F138" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>68</v>
-      </c>
-      <c r="B139" t="s">
-        <v>416</v>
-      </c>
-      <c r="C139">
-        <v>512040</v>
-      </c>
-      <c r="D139" t="s">
-        <v>417</v>
-      </c>
-      <c r="E139" s="1">
-        <v>76704894</v>
-      </c>
-      <c r="F139" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>261</v>
-      </c>
-      <c r="B140" t="s">
-        <v>419</v>
-      </c>
-      <c r="C140">
-        <v>513550</v>
-      </c>
-      <c r="D140" t="s">
-        <v>420</v>
-      </c>
-      <c r="E140" s="1">
-        <v>76180930</v>
-      </c>
-      <c r="F140" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>87</v>
-      </c>
-      <c r="B141" t="s">
-        <v>422</v>
-      </c>
-      <c r="C141">
-        <v>159825</v>
-      </c>
-      <c r="D141" t="s">
-        <v>423</v>
-      </c>
-      <c r="E141" s="1">
-        <v>74878819.089</v>
-      </c>
-      <c r="F141" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>329</v>
-      </c>
-      <c r="B142" t="s">
-        <v>425</v>
-      </c>
-      <c r="C142">
-        <v>588020</v>
-      </c>
-      <c r="D142" t="s">
-        <v>426</v>
-      </c>
-      <c r="E142" s="1">
-        <v>71869807</v>
-      </c>
-      <c r="F142" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>24</v>
-      </c>
-      <c r="B143" t="s">
-        <v>428</v>
-      </c>
-      <c r="C143">
-        <v>159707</v>
-      </c>
-      <c r="D143" t="s">
-        <v>429</v>
-      </c>
-      <c r="E143" s="1">
-        <v>71801699.2</v>
-      </c>
-      <c r="F143" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>240</v>
-      </c>
-      <c r="B144" t="s">
-        <v>431</v>
-      </c>
-      <c r="C144">
-        <v>561360</v>
-      </c>
-      <c r="D144" t="s">
-        <v>432</v>
-      </c>
-      <c r="E144" s="1">
-        <v>69688523</v>
-      </c>
-      <c r="F144" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>69</v>
-      </c>
-      <c r="B145" t="s">
-        <v>434</v>
-      </c>
-      <c r="C145">
-        <v>159263</v>
-      </c>
-      <c r="D145" t="s">
-        <v>435</v>
-      </c>
-      <c r="E145" s="1">
-        <v>69661830.7</v>
-      </c>
-      <c r="F145" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>310</v>
-      </c>
-      <c r="B146" t="s">
-        <v>437</v>
-      </c>
-      <c r="C146">
-        <v>159697</v>
-      </c>
-      <c r="D146" t="s">
-        <v>438</v>
-      </c>
-      <c r="E146" s="1">
-        <v>69414400.9</v>
-      </c>
-      <c r="F146" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>279</v>
-      </c>
-      <c r="B147" t="s">
-        <v>440</v>
-      </c>
-      <c r="C147">
-        <v>159323</v>
-      </c>
-      <c r="D147" t="s">
-        <v>441</v>
-      </c>
-      <c r="E147" s="1">
-        <v>68659068.928</v>
-      </c>
-      <c r="F147" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>44</v>
-      </c>
-      <c r="B148" t="s">
-        <v>443</v>
-      </c>
-      <c r="C148">
-        <v>560050</v>
-      </c>
-      <c r="D148" t="s">
-        <v>444</v>
-      </c>
-      <c r="E148" s="1">
-        <v>68170271</v>
-      </c>
-      <c r="F148" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>361</v>
-      </c>
-      <c r="B149" t="s">
-        <v>446</v>
-      </c>
-      <c r="C149">
-        <v>159625</v>
-      </c>
-      <c r="D149" t="s">
-        <v>447</v>
-      </c>
-      <c r="E149" s="1">
-        <v>67985809.4</v>
-      </c>
-      <c r="F149" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>363</v>
-      </c>
-      <c r="B150" t="s">
-        <v>449</v>
-      </c>
-      <c r="C150">
-        <v>159930</v>
-      </c>
-      <c r="D150" t="s">
-        <v>450</v>
-      </c>
-      <c r="E150" s="1">
-        <v>64458483</v>
-      </c>
-      <c r="F150" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>297</v>
-      </c>
-      <c r="B151" t="s">
-        <v>452</v>
-      </c>
-      <c r="C151">
-        <v>159105</v>
-      </c>
-      <c r="D151" t="s">
-        <v>453</v>
-      </c>
-      <c r="E151" s="1">
-        <v>64378434.985</v>
-      </c>
-      <c r="F151" t="s">
-        <v>454</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J151" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J83" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:J83">
+      <sortCondition ref="E1:E83" descending="1"/>
+    </sortState>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ETF合并筛选结果.xlsx
+++ b/ETF合并筛选结果.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27952" windowHeight="11655"/>
+    <workbookView windowWidth="27950" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>symbol</t>
   </si>
@@ -47,6 +47,231 @@
     <t>name_cleaned</t>
   </si>
   <si>
+    <t>SHSE.515050</t>
+  </si>
+  <si>
+    <t>华夏中证5G通信主题ETF</t>
+  </si>
+  <si>
+    <t>5G通信</t>
+  </si>
+  <si>
+    <t>SZSE.159595</t>
+  </si>
+  <si>
+    <t>大成中证A50ETF</t>
+  </si>
+  <si>
+    <t>A50</t>
+  </si>
+  <si>
+    <t>SHSE.563360</t>
+  </si>
+  <si>
+    <t>华泰柏瑞中证A500ETF</t>
+  </si>
+  <si>
+    <t>A500</t>
+  </si>
+  <si>
+    <t>SZSE.159516</t>
+  </si>
+  <si>
+    <t>国泰中证半导体材料设备主题ETF</t>
+  </si>
+  <si>
+    <t>半导体材料设备</t>
+  </si>
+  <si>
+    <t>SZSE.159995</t>
+  </si>
+  <si>
+    <t>华夏国证半导体芯片ETF</t>
+  </si>
+  <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>SZSE.159865</t>
+  </si>
+  <si>
+    <t>国泰中证畜牧养殖ETF</t>
+  </si>
+  <si>
+    <t>畜牧养殖</t>
+  </si>
+  <si>
+    <t>SHSE.512980</t>
+  </si>
+  <si>
+    <t>广发中证传媒ETF</t>
+  </si>
+  <si>
+    <t>传媒</t>
+  </si>
+  <si>
+    <t>SZSE.159992</t>
+  </si>
+  <si>
+    <t>银华中证创新药产业ETF</t>
+  </si>
+  <si>
+    <t>创新药</t>
+  </si>
+  <si>
+    <t>SZSE.159915</t>
+  </si>
+  <si>
+    <t>易方达创业板ETF</t>
+  </si>
+  <si>
+    <t>创业板</t>
+  </si>
+  <si>
+    <t>SHSE.515400</t>
+  </si>
+  <si>
+    <t>富国中证大数据产业ETF</t>
+  </si>
+  <si>
+    <t>大数据</t>
+  </si>
+  <si>
+    <t>SZSE.159611</t>
+  </si>
+  <si>
+    <t>广发中证全指电力公用事业ETF</t>
+  </si>
+  <si>
+    <t>电力公用事业</t>
+  </si>
+  <si>
+    <t>SZSE.159326</t>
+  </si>
+  <si>
+    <t>华夏中证电网设备主题ETF</t>
+  </si>
+  <si>
+    <t>电网设备</t>
+  </si>
+  <si>
+    <t>SZSE.159869</t>
+  </si>
+  <si>
+    <t>华夏中证动漫游戏ETF</t>
+  </si>
+  <si>
+    <t>动漫游戏</t>
+  </si>
+  <si>
+    <t>SHSE.512200</t>
+  </si>
+  <si>
+    <t>南方中证房地产ETF</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>SHSE.515210</t>
+  </si>
+  <si>
+    <t>国泰中证钢铁ETF</t>
+  </si>
+  <si>
+    <t>钢铁</t>
+  </si>
+  <si>
+    <t>SZSE.159638</t>
+  </si>
+  <si>
+    <t>嘉实中证高端装备细分50ETF</t>
+  </si>
+  <si>
+    <t>高端装备50</t>
+  </si>
+  <si>
+    <t>SHSE.513690</t>
+  </si>
+  <si>
+    <t>博时恒生高股息ETF</t>
+  </si>
+  <si>
+    <t>高股息</t>
+  </si>
+  <si>
+    <t>SHSE.560280</t>
+  </si>
+  <si>
+    <t>广发中证工程机械主题ETF</t>
+  </si>
+  <si>
+    <t>工程机械</t>
+  </si>
+  <si>
+    <t>SHSE.515790</t>
+  </si>
+  <si>
+    <t>华泰柏瑞中证光伏产业ETF</t>
+  </si>
+  <si>
+    <t>光伏</t>
+  </si>
+  <si>
+    <t>SHSE.512670</t>
+  </si>
+  <si>
+    <t>鹏华中证国防ETF</t>
+  </si>
+  <si>
+    <t>国防</t>
+  </si>
+  <si>
+    <t>SHSE.510720</t>
+  </si>
+  <si>
+    <t>国泰上证国有企业红利ETF</t>
+  </si>
+  <si>
+    <t>国有企业红利</t>
+  </si>
+  <si>
+    <t>SHSE.563300</t>
+  </si>
+  <si>
+    <t>华泰柏瑞中证2000ETF</t>
+  </si>
+  <si>
+    <t>国证2000</t>
+  </si>
+  <si>
+    <t>SZSE.159227</t>
+  </si>
+  <si>
+    <t>华夏国证航天航空行业ETF</t>
+  </si>
+  <si>
+    <t>航天航空</t>
+  </si>
+  <si>
+    <t>SHSE.510880</t>
+  </si>
+  <si>
+    <t>华泰柏瑞上证红利ETF</t>
+  </si>
+  <si>
+    <t>红利</t>
+  </si>
+  <si>
+    <t>SHSE.512890</t>
+  </si>
+  <si>
+    <t>华泰柏瑞中证红利低波ETF</t>
+  </si>
+  <si>
+    <t>红利低波</t>
+  </si>
+  <si>
     <t>SHSE.510300</t>
   </si>
   <si>
@@ -56,13 +281,184 @@
     <t>沪深300</t>
   </si>
   <si>
-    <t>SHSE.563360</t>
-  </si>
-  <si>
-    <t>华泰柏瑞中证A500ETF</t>
-  </si>
-  <si>
-    <t>A500</t>
+    <t>SHSE.517520</t>
+  </si>
+  <si>
+    <t>永赢中证沪深港黄金产业股票ETF</t>
+  </si>
+  <si>
+    <t>沪深港黄金股票</t>
+  </si>
+  <si>
+    <t>SZSE.159870</t>
+  </si>
+  <si>
+    <t>鹏华中证细分化工产业ETF</t>
+  </si>
+  <si>
+    <t>化工</t>
+  </si>
+  <si>
+    <t>SZSE.159667</t>
+  </si>
+  <si>
+    <t>国泰中证机床ETF</t>
+  </si>
+  <si>
+    <t>机床</t>
+  </si>
+  <si>
+    <t>SHSE.562500</t>
+  </si>
+  <si>
+    <t>华夏中证机器人ETF</t>
+  </si>
+  <si>
+    <t>机器人</t>
+  </si>
+  <si>
+    <t>SZSE.159998</t>
+  </si>
+  <si>
+    <t>天弘中证计算机主题ETF</t>
+  </si>
+  <si>
+    <t>计算机</t>
+  </si>
+  <si>
+    <t>SHSE.512040</t>
+  </si>
+  <si>
+    <t>富国中证价值ETF</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>SZSE.159745</t>
+  </si>
+  <si>
+    <t>国泰中证全指建筑材料ETF</t>
+  </si>
+  <si>
+    <t>建筑材料</t>
+  </si>
+  <si>
+    <t>SZSE.159851</t>
+  </si>
+  <si>
+    <t>华宝中证金融科技主题ETF</t>
+  </si>
+  <si>
+    <t>金融科技</t>
+  </si>
+  <si>
+    <t>SHSE.512690</t>
+  </si>
+  <si>
+    <t>鹏华中证酒ETF</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>SHSE.512710</t>
+  </si>
+  <si>
+    <t>富国中证军工龙头ETF</t>
+  </si>
+  <si>
+    <t>军工</t>
+  </si>
+  <si>
+    <t>SHSE.515000</t>
+  </si>
+  <si>
+    <t>华宝中证科技龙头ETF</t>
+  </si>
+  <si>
+    <t>科技</t>
+  </si>
+  <si>
+    <t>SZSE.159766</t>
+  </si>
+  <si>
+    <t>富国中证旅游主题ETF</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>SZSE.159625</t>
+  </si>
+  <si>
+    <t>嘉实国证绿色电力ETF</t>
+  </si>
+  <si>
+    <t>绿色电力</t>
+  </si>
+  <si>
+    <t>SHSE.515220</t>
+  </si>
+  <si>
+    <t>国泰中证煤炭ETF</t>
+  </si>
+  <si>
+    <t>煤炭</t>
+  </si>
+  <si>
+    <t>SZSE.159790</t>
+  </si>
+  <si>
+    <t>华夏中证内地低碳经济主题ETF</t>
+  </si>
+  <si>
+    <t>内地低碳经济</t>
+  </si>
+  <si>
+    <t>SZSE.159930</t>
+  </si>
+  <si>
+    <t>汇添富中证能源ETF</t>
+  </si>
+  <si>
+    <t>能源</t>
+  </si>
+  <si>
+    <t>SZSE.159825</t>
+  </si>
+  <si>
+    <t>富国中证农业主题ETF</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>SZSE.159819</t>
+  </si>
+  <si>
+    <t>易方达中证人工智能主题ETF</t>
+  </si>
+  <si>
+    <t>人工智能</t>
+  </si>
+  <si>
+    <t>SZSE.159852</t>
+  </si>
+  <si>
+    <t>嘉实中证软件服务ETF</t>
+  </si>
+  <si>
+    <t>软件服务</t>
+  </si>
+  <si>
+    <t>SZSE.159206</t>
+  </si>
+  <si>
+    <t>永赢国证商用卫星ETF</t>
+  </si>
+  <si>
+    <t>商用卫星</t>
   </si>
   <si>
     <t>SHSE.510050</t>
@@ -74,6 +470,222 @@
     <t>上证50</t>
   </si>
   <si>
+    <t>SZSE.159901</t>
+  </si>
+  <si>
+    <t>易方达深证100ETF</t>
+  </si>
+  <si>
+    <t>深证100</t>
+  </si>
+  <si>
+    <t>SZSE.159105</t>
+  </si>
+  <si>
+    <t>易方达恒生生物科技ETF</t>
+  </si>
+  <si>
+    <t>生物科技</t>
+  </si>
+  <si>
+    <t>SZSE.159859</t>
+  </si>
+  <si>
+    <t>天弘国证生物医药ETF</t>
+  </si>
+  <si>
+    <t>生物医药</t>
+  </si>
+  <si>
+    <t>SZSE.159731</t>
+  </si>
+  <si>
+    <t>华夏中证石化产业ETF</t>
+  </si>
+  <si>
+    <t>石化</t>
+  </si>
+  <si>
+    <t>SZSE.159697</t>
+  </si>
+  <si>
+    <t>鹏华国证石油天然气ETF</t>
+  </si>
+  <si>
+    <t>石油天然气</t>
+  </si>
+  <si>
+    <t>SHSE.515170</t>
+  </si>
+  <si>
+    <t>华夏中证细分食品饮料产业主题ETF</t>
+  </si>
+  <si>
+    <t>食品饮料</t>
+  </si>
+  <si>
+    <t>SHSE.515880</t>
+  </si>
+  <si>
+    <t>国泰中证全指通信设备ETF</t>
+  </si>
+  <si>
+    <t>通信设备</t>
+  </si>
+  <si>
+    <t>SZSE.159378</t>
+  </si>
+  <si>
+    <t>永赢国证通用航空产业ETF</t>
+  </si>
+  <si>
+    <t>通用航空</t>
+  </si>
+  <si>
+    <t>SHSE.516150</t>
+  </si>
+  <si>
+    <t>嘉实中证稀土产业ETF</t>
+  </si>
+  <si>
+    <t>稀土</t>
+  </si>
+  <si>
+    <t>SHSE.562800</t>
+  </si>
+  <si>
+    <t>嘉实中证稀有金属主题ETF</t>
+  </si>
+  <si>
+    <t>稀有金属</t>
+  </si>
+  <si>
+    <t>SHSE.515650</t>
+  </si>
+  <si>
+    <t>富国中证消费50ETF</t>
+  </si>
+  <si>
+    <t>消费50</t>
+  </si>
+  <si>
+    <t>SZSE.159732</t>
+  </si>
+  <si>
+    <t>华夏国证消费电子主题ETF</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>SZSE.159599</t>
+  </si>
+  <si>
+    <t>西藏东财中证芯片产业ETF</t>
+  </si>
+  <si>
+    <t>芯片</t>
+  </si>
+  <si>
+    <t>SHSE.516160</t>
+  </si>
+  <si>
+    <t>南方中证新能源ETF</t>
+  </si>
+  <si>
+    <t>新能源</t>
+  </si>
+  <si>
+    <t>SZSE.159755</t>
+  </si>
+  <si>
+    <t>广发国证新能源车电池ETF</t>
+  </si>
+  <si>
+    <t>新能源车电池</t>
+  </si>
+  <si>
+    <t>SHSE.515030</t>
+  </si>
+  <si>
+    <t>华夏中证新能源汽车ETF</t>
+  </si>
+  <si>
+    <t>新能源汽车</t>
+  </si>
+  <si>
+    <t>SHSE.512170</t>
+  </si>
+  <si>
+    <t>华宝中证医疗ETF</t>
+  </si>
+  <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t>SZSE.159883</t>
+  </si>
+  <si>
+    <t>永赢中证全指医疗器械ETF</t>
+  </si>
+  <si>
+    <t>医疗器械</t>
+  </si>
+  <si>
+    <t>SZSE.159929</t>
+  </si>
+  <si>
+    <t>汇添富中证医药卫生ETF</t>
+  </si>
+  <si>
+    <t>医药卫生</t>
+  </si>
+  <si>
+    <t>SHSE.512800</t>
+  </si>
+  <si>
+    <t>华宝中证银行ETF</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>SHSE.512400</t>
+  </si>
+  <si>
+    <t>南方中证申万有色金属ETF</t>
+  </si>
+  <si>
+    <t>有色金属</t>
+  </si>
+  <si>
+    <t>SHSE.516510</t>
+  </si>
+  <si>
+    <t>易方达中证云计算与大数据主题ETF</t>
+  </si>
+  <si>
+    <t>云计算与大数据</t>
+  </si>
+  <si>
+    <t>SHSE.512880</t>
+  </si>
+  <si>
+    <t>国泰中证全指证券公司ETF</t>
+  </si>
+  <si>
+    <t>证券公司</t>
+  </si>
+  <si>
+    <t>SHSE.516520</t>
+  </si>
+  <si>
+    <t>华泰柏瑞中证智能汽车主题ETF</t>
+  </si>
+  <si>
+    <t>智能汽车</t>
+  </si>
+  <si>
     <t>SHSE.512100</t>
   </si>
   <si>
@@ -92,157 +704,22 @@
     <t>中证500</t>
   </si>
   <si>
-    <t>SZSE.159206</t>
-  </si>
-  <si>
-    <t>永赢国证商用卫星ETF</t>
-  </si>
-  <si>
-    <t>商用卫星</t>
-  </si>
-  <si>
-    <t>SZSE.159915</t>
-  </si>
-  <si>
-    <t>易方达创业板ETF</t>
-  </si>
-  <si>
-    <t>创业板</t>
-  </si>
-  <si>
-    <t>SZSE.159516</t>
-  </si>
-  <si>
-    <t>国泰中证半导体材料设备主题ETF</t>
-  </si>
-  <si>
-    <t>半导体材料设备</t>
-  </si>
-  <si>
-    <t>SHSE.512880</t>
-  </si>
-  <si>
-    <t>国泰中证全指证券公司ETF</t>
-  </si>
-  <si>
-    <t>证券公司</t>
-  </si>
-  <si>
-    <t>SHSE.515790</t>
-  </si>
-  <si>
-    <t>华泰柏瑞中证光伏产业ETF</t>
-  </si>
-  <si>
-    <t>光伏</t>
-  </si>
-  <si>
-    <t>SZSE.159870</t>
-  </si>
-  <si>
-    <t>鹏华中证细分化工产业ETF</t>
-  </si>
-  <si>
-    <t>化工</t>
-  </si>
-  <si>
-    <t>SHSE.512400</t>
-  </si>
-  <si>
-    <t>南方中证申万有色金属ETF</t>
-  </si>
-  <si>
-    <t>申万有色金属</t>
-  </si>
-  <si>
-    <t>SZSE.159326</t>
-  </si>
-  <si>
-    <t>华夏中证电网设备主题ETF</t>
-  </si>
-  <si>
-    <t>电网设备</t>
-  </si>
-  <si>
-    <t>SHSE.512980</t>
-  </si>
-  <si>
-    <t>广发中证传媒ETF</t>
-  </si>
-  <si>
-    <t>传媒</t>
-  </si>
-  <si>
-    <t>SHSE.562500</t>
-  </si>
-  <si>
-    <t>华夏中证机器人ETF</t>
-  </si>
-  <si>
-    <t>机器人</t>
-  </si>
-  <si>
-    <t>SZSE.159995</t>
-  </si>
-  <si>
-    <t>华夏国证半导体芯片ETF</t>
-  </si>
-  <si>
-    <t>半导体芯片</t>
-  </si>
-  <si>
-    <t>SZSE.159852</t>
-  </si>
-  <si>
-    <t>嘉实中证软件服务ETF</t>
-  </si>
-  <si>
-    <t>软件服务</t>
-  </si>
-  <si>
-    <t>SHSE.512710</t>
-  </si>
-  <si>
-    <t>富国中证军工龙头ETF</t>
-  </si>
-  <si>
-    <t>军工</t>
-  </si>
-  <si>
-    <t>SHSE.515880</t>
-  </si>
-  <si>
-    <t>国泰中证全指通信设备ETF</t>
-  </si>
-  <si>
-    <t>通信设备</t>
-  </si>
-  <si>
-    <t>SZSE.159227</t>
-  </si>
-  <si>
-    <t>华夏国证航天航空行业ETF</t>
-  </si>
-  <si>
-    <t>航天航空</t>
-  </si>
-  <si>
-    <t>SHSE.512800</t>
-  </si>
-  <si>
-    <t>华宝中证银行ETF</t>
-  </si>
-  <si>
-    <t>银行</t>
-  </si>
-  <si>
-    <t>SZSE.159851</t>
-  </si>
-  <si>
-    <t>华宝中证金融科技主题ETF</t>
-  </si>
-  <si>
-    <t>金融科技</t>
+    <t>SHSE.515800</t>
+  </si>
+  <si>
+    <t>添富中证800ETF</t>
+  </si>
+  <si>
+    <t>中证800</t>
+  </si>
+  <si>
+    <t>SZSE.159928</t>
+  </si>
+  <si>
+    <t>汇添富中证主要消费ETF</t>
+  </si>
+  <si>
+    <t>主要消费</t>
   </si>
   <si>
     <t>SZSE.159201</t>
@@ -254,186 +731,6 @@
     <t>自由现金流</t>
   </si>
   <si>
-    <t>SZSE.159755</t>
-  </si>
-  <si>
-    <t>广发国证新能源车电池ETF</t>
-  </si>
-  <si>
-    <t>新能源车电池</t>
-  </si>
-  <si>
-    <t>SHSE.512170</t>
-  </si>
-  <si>
-    <t>华宝中证医疗ETF</t>
-  </si>
-  <si>
-    <t>医疗</t>
-  </si>
-  <si>
-    <t>SHSE.512690</t>
-  </si>
-  <si>
-    <t>鹏华中证酒ETF</t>
-  </si>
-  <si>
-    <t>酒</t>
-  </si>
-  <si>
-    <t>SHSE.517520</t>
-  </si>
-  <si>
-    <t>永赢中证沪深港黄金产业股票ETF</t>
-  </si>
-  <si>
-    <t>沪深港黄金股票</t>
-  </si>
-  <si>
-    <t>SHSE.563300</t>
-  </si>
-  <si>
-    <t>华泰柏瑞中证2000ETF</t>
-  </si>
-  <si>
-    <t>国证2000</t>
-  </si>
-  <si>
-    <t>SZSE.159819</t>
-  </si>
-  <si>
-    <t>易方达中证人工智能主题ETF</t>
-  </si>
-  <si>
-    <t>人工智能</t>
-  </si>
-  <si>
-    <t>SZSE.159869</t>
-  </si>
-  <si>
-    <t>华夏中证动漫游戏ETF</t>
-  </si>
-  <si>
-    <t>动漫游戏</t>
-  </si>
-  <si>
-    <t>SHSE.512890</t>
-  </si>
-  <si>
-    <t>华泰柏瑞中证红利低波ETF</t>
-  </si>
-  <si>
-    <t>红利低波</t>
-  </si>
-  <si>
-    <t>SZSE.159992</t>
-  </si>
-  <si>
-    <t>银华中证创新药产业ETF</t>
-  </si>
-  <si>
-    <t>创新药</t>
-  </si>
-  <si>
-    <t>SHSE.560860</t>
-  </si>
-  <si>
-    <t>万家中证工业有色金属主题ETF</t>
-  </si>
-  <si>
-    <t>工业有色金属</t>
-  </si>
-  <si>
-    <t>SHSE.512200</t>
-  </si>
-  <si>
-    <t>南方中证房地产ETF</t>
-  </si>
-  <si>
-    <t>房地产</t>
-  </si>
-  <si>
-    <t>SHSE.515220</t>
-  </si>
-  <si>
-    <t>国泰中证煤炭ETF</t>
-  </si>
-  <si>
-    <t>煤炭</t>
-  </si>
-  <si>
-    <t>SHSE.516160</t>
-  </si>
-  <si>
-    <t>南方中证新能源ETF</t>
-  </si>
-  <si>
-    <t>新能源</t>
-  </si>
-  <si>
-    <t>SHSE.510880</t>
-  </si>
-  <si>
-    <t>华泰柏瑞上证红利ETF</t>
-  </si>
-  <si>
-    <t>红利</t>
-  </si>
-  <si>
-    <t>SHSE.516650</t>
-  </si>
-  <si>
-    <t>华夏中证细分有色金属产业主题ETF</t>
-  </si>
-  <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>SZSE.159883</t>
-  </si>
-  <si>
-    <t>永赢中证全指医疗器械ETF</t>
-  </si>
-  <si>
-    <t>医疗器械</t>
-  </si>
-  <si>
-    <t>SHSE.562800</t>
-  </si>
-  <si>
-    <t>嘉实中证稀有金属主题ETF</t>
-  </si>
-  <si>
-    <t>稀有金属</t>
-  </si>
-  <si>
-    <t>SZSE.159928</t>
-  </si>
-  <si>
-    <t>汇添富中证主要消费ETF</t>
-  </si>
-  <si>
-    <t>主要消费</t>
-  </si>
-  <si>
-    <t>SHSE.512670</t>
-  </si>
-  <si>
-    <t>鹏华中证国防ETF</t>
-  </si>
-  <si>
-    <t>国防</t>
-  </si>
-  <si>
-    <t>SZSE.159796</t>
-  </si>
-  <si>
-    <t>汇添富中证电池主题ETF</t>
-  </si>
-  <si>
-    <t>电池</t>
-  </si>
-  <si>
     <t>SHSE.510210</t>
   </si>
   <si>
@@ -441,348 +738,6 @@
   </si>
   <si>
     <t>综指</t>
-  </si>
-  <si>
-    <t>SZSE.159566</t>
-  </si>
-  <si>
-    <t>易方达国证新能源电池ETF</t>
-  </si>
-  <si>
-    <t>新能源电池</t>
-  </si>
-  <si>
-    <t>SZSE.159766</t>
-  </si>
-  <si>
-    <t>富国中证旅游主题ETF</t>
-  </si>
-  <si>
-    <t>旅游</t>
-  </si>
-  <si>
-    <t>SHSE.515030</t>
-  </si>
-  <si>
-    <t>华夏中证新能源汽车ETF</t>
-  </si>
-  <si>
-    <t>新能源汽车</t>
-  </si>
-  <si>
-    <t>SHSE.516150</t>
-  </si>
-  <si>
-    <t>嘉实中证稀土产业ETF</t>
-  </si>
-  <si>
-    <t>稀土</t>
-  </si>
-  <si>
-    <t>SHSE.516520</t>
-  </si>
-  <si>
-    <t>华泰柏瑞中证智能汽车主题ETF</t>
-  </si>
-  <si>
-    <t>智能汽车</t>
-  </si>
-  <si>
-    <t>SZSE.159901</t>
-  </si>
-  <si>
-    <t>易方达深证100ETF</t>
-  </si>
-  <si>
-    <t>深证100</t>
-  </si>
-  <si>
-    <t>SHSE.513690</t>
-  </si>
-  <si>
-    <t>博时恒生高股息ETF</t>
-  </si>
-  <si>
-    <t>高股息</t>
-  </si>
-  <si>
-    <t>SHSE.515050</t>
-  </si>
-  <si>
-    <t>华夏中证5G通信主题ETF</t>
-  </si>
-  <si>
-    <t>5G通信</t>
-  </si>
-  <si>
-    <t>SZSE.159745</t>
-  </si>
-  <si>
-    <t>国泰中证全指建筑材料ETF</t>
-  </si>
-  <si>
-    <t>建筑材料</t>
-  </si>
-  <si>
-    <t>SZSE.159611</t>
-  </si>
-  <si>
-    <t>广发中证全指电力公用事业ETF</t>
-  </si>
-  <si>
-    <t>电力公用事业</t>
-  </si>
-  <si>
-    <t>SHSE.515210</t>
-  </si>
-  <si>
-    <t>国泰中证钢铁ETF</t>
-  </si>
-  <si>
-    <t>钢铁</t>
-  </si>
-  <si>
-    <t>SZSE.159731</t>
-  </si>
-  <si>
-    <t>华夏中证石化产业ETF</t>
-  </si>
-  <si>
-    <t>石化</t>
-  </si>
-  <si>
-    <t>SHSE.516510</t>
-  </si>
-  <si>
-    <t>易方达中证云计算与大数据主题ETF</t>
-  </si>
-  <si>
-    <t>云计算与大数据</t>
-  </si>
-  <si>
-    <t>SZSE.159998</t>
-  </si>
-  <si>
-    <t>天弘中证计算机主题ETF</t>
-  </si>
-  <si>
-    <t>计算机</t>
-  </si>
-  <si>
-    <t>SHSE.515000</t>
-  </si>
-  <si>
-    <t>华宝中证科技龙头ETF</t>
-  </si>
-  <si>
-    <t>科技</t>
-  </si>
-  <si>
-    <t>SHSE.560280</t>
-  </si>
-  <si>
-    <t>广发中证工程机械主题ETF</t>
-  </si>
-  <si>
-    <t>工程机械</t>
-  </si>
-  <si>
-    <t>SZSE.159638</t>
-  </si>
-  <si>
-    <t>嘉实中证高端装备细分50ETF</t>
-  </si>
-  <si>
-    <t>高端装备50</t>
-  </si>
-  <si>
-    <t>SZSE.159595</t>
-  </si>
-  <si>
-    <t>大成中证A50ETF</t>
-  </si>
-  <si>
-    <t>A50</t>
-  </si>
-  <si>
-    <t>SHSE.515400</t>
-  </si>
-  <si>
-    <t>富国中证大数据产业ETF</t>
-  </si>
-  <si>
-    <t>大数据</t>
-  </si>
-  <si>
-    <t>SHSE.515170</t>
-  </si>
-  <si>
-    <t>华夏中证细分食品饮料产业主题ETF</t>
-  </si>
-  <si>
-    <t>食品饮料</t>
-  </si>
-  <si>
-    <t>SZSE.159599</t>
-  </si>
-  <si>
-    <t>西藏东财中证芯片产业ETF</t>
-  </si>
-  <si>
-    <t>芯片</t>
-  </si>
-  <si>
-    <t>SZSE.159732</t>
-  </si>
-  <si>
-    <t>华夏国证消费电子主题ETF</t>
-  </si>
-  <si>
-    <t>消费电子</t>
-  </si>
-  <si>
-    <t>SZSE.159859</t>
-  </si>
-  <si>
-    <t>天弘国证生物医药ETF</t>
-  </si>
-  <si>
-    <t>生物医药</t>
-  </si>
-  <si>
-    <t>SHSE.515650</t>
-  </si>
-  <si>
-    <t>富国中证消费50ETF</t>
-  </si>
-  <si>
-    <t>消费50</t>
-  </si>
-  <si>
-    <t>SZSE.159667</t>
-  </si>
-  <si>
-    <t>国泰中证机床ETF</t>
-  </si>
-  <si>
-    <t>机床</t>
-  </si>
-  <si>
-    <t>SZSE.159259</t>
-  </si>
-  <si>
-    <t>易方达国证成长100ETF</t>
-  </si>
-  <si>
-    <t>成长100</t>
-  </si>
-  <si>
-    <t>SHSE.510720</t>
-  </si>
-  <si>
-    <t>国泰上证国有企业红利ETF</t>
-  </si>
-  <si>
-    <t>国有企业红利</t>
-  </si>
-  <si>
-    <t>SZSE.159790</t>
-  </si>
-  <si>
-    <t>华夏中证内地低碳经济主题ETF</t>
-  </si>
-  <si>
-    <t>内地低碳经济</t>
-  </si>
-  <si>
-    <t>SZSE.159929</t>
-  </si>
-  <si>
-    <t>汇添富中证医药卫生ETF</t>
-  </si>
-  <si>
-    <t>医药卫生</t>
-  </si>
-  <si>
-    <t>SZSE.159865</t>
-  </si>
-  <si>
-    <t>国泰中证畜牧养殖ETF</t>
-  </si>
-  <si>
-    <t>畜牧养殖</t>
-  </si>
-  <si>
-    <t>SZSE.159378</t>
-  </si>
-  <si>
-    <t>永赢国证通用航空产业ETF</t>
-  </si>
-  <si>
-    <t>通用航空</t>
-  </si>
-  <si>
-    <t>SHSE.515800</t>
-  </si>
-  <si>
-    <t>添富中证800ETF</t>
-  </si>
-  <si>
-    <t>中证800</t>
-  </si>
-  <si>
-    <t>SHSE.512040</t>
-  </si>
-  <si>
-    <t>富国中证价值ETF</t>
-  </si>
-  <si>
-    <t>价值</t>
-  </si>
-  <si>
-    <t>SZSE.159825</t>
-  </si>
-  <si>
-    <t>富国中证农业主题ETF</t>
-  </si>
-  <si>
-    <t>农业</t>
-  </si>
-  <si>
-    <t>SZSE.159697</t>
-  </si>
-  <si>
-    <t>鹏华国证石油天然气ETF</t>
-  </si>
-  <si>
-    <t>石油天然气</t>
-  </si>
-  <si>
-    <t>SZSE.159625</t>
-  </si>
-  <si>
-    <t>嘉实国证绿色电力ETF</t>
-  </si>
-  <si>
-    <t>绿色电力</t>
-  </si>
-  <si>
-    <t>SZSE.159930</t>
-  </si>
-  <si>
-    <t>汇添富中证能源ETF</t>
-  </si>
-  <si>
-    <t>能源</t>
-  </si>
-  <si>
-    <t>SZSE.159105</t>
-  </si>
-  <si>
-    <t>易方达恒生生物科技ETF</t>
-  </si>
-  <si>
-    <t>生物科技</t>
   </si>
 </sst>
 </file>
@@ -1731,20 +1686,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A70" sqref="$A70:$XFD71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.35" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.55555555555556" customWidth="1"/>
-    <col min="2" max="2" width="13.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="8.22222222222222" customWidth="1"/>
-    <col min="4" max="4" width="33.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="16.1111111111111" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="4.55714285714286" customWidth="1"/>
+    <col min="2" max="2" width="13.1071428571429" customWidth="1"/>
+    <col min="3" max="3" width="8.22142857142857" customWidth="1"/>
+    <col min="4" max="4" width="33.6642857142857" customWidth="1"/>
+    <col min="5" max="5" width="16.1071428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.2214285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1766,19 +1721,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>510300</v>
+        <v>515050</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>31834663643</v>
+        <v>220154833</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1786,19 +1741,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>563360</v>
+        <v>159595</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>15511151724</v>
+        <v>127370683.849</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1806,19 +1761,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4">
-        <v>510050</v>
+        <v>563360</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1">
-        <v>12351771835</v>
+        <v>15511151724</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -1826,19 +1781,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5">
-        <v>512100</v>
+        <v>159516</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1">
-        <v>11508716134</v>
+        <v>2259758441.945</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -1846,19 +1801,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6">
-        <v>510500</v>
+        <v>159995</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="1">
-        <v>5772176393</v>
+        <v>1157948262.152</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -1866,19 +1821,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7">
-        <v>159206</v>
+        <v>159865</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="1">
-        <v>3914546331.945</v>
+        <v>83414301.596</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -1886,19 +1841,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8">
-        <v>159915</v>
+        <v>512980</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="1">
-        <v>3018742908.302</v>
+        <v>1487449650</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -1906,19 +1861,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9">
-        <v>159516</v>
+        <v>159992</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="1">
-        <v>2259758441.945</v>
+        <v>635984492.214</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1926,19 +1881,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10">
-        <v>512880</v>
+        <v>159915</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="1">
-        <v>2173364060</v>
+        <v>3018742908.302</v>
       </c>
       <c r="F10" t="s">
         <v>31</v>
@@ -1946,19 +1901,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
       <c r="C11">
-        <v>515790</v>
+        <v>515400</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="1">
-        <v>2013211824</v>
+        <v>125323162</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
@@ -1966,19 +1921,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>110</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12">
-        <v>159870</v>
+        <v>159611</v>
       </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="1">
-        <v>1826816234.266</v>
+        <v>218580685.963</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -1986,19 +1941,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>512400</v>
+        <v>159326</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="1">
-        <v>1784756989</v>
+        <v>1490547804.728</v>
       </c>
       <c r="F13" t="s">
         <v>40</v>
@@ -2006,19 +1961,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>305</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14">
-        <v>159326</v>
+        <v>159869</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="1">
-        <v>1490547804.728</v>
+        <v>686392111.942</v>
       </c>
       <c r="F14" t="s">
         <v>43</v>
@@ -2026,19 +1981,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
       <c r="C15">
-        <v>512980</v>
+        <v>512200</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="1">
-        <v>1487449650</v>
+        <v>592585962</v>
       </c>
       <c r="F15" t="s">
         <v>46</v>
@@ -2046,19 +2001,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>199</v>
+        <v>397</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
       <c r="C16">
-        <v>562500</v>
+        <v>515210</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="1">
-        <v>1317074655</v>
+        <v>216076026</v>
       </c>
       <c r="F16" t="s">
         <v>49</v>
@@ -2066,19 +2021,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>123</v>
+        <v>408</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
       </c>
       <c r="C17">
-        <v>159995</v>
+        <v>159638</v>
       </c>
       <c r="D17" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="1">
-        <v>1157948262.152</v>
+        <v>131882480.429</v>
       </c>
       <c r="F17" t="s">
         <v>52</v>
@@ -2086,19 +2041,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18">
-        <v>159852</v>
+        <v>513690</v>
       </c>
       <c r="D18" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="1">
-        <v>1155073578.407</v>
+        <v>227208367</v>
       </c>
       <c r="F18" t="s">
         <v>55</v>
@@ -2106,19 +2061,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19">
-        <v>512710</v>
+        <v>560280</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="1">
-        <v>1079411157</v>
+        <v>143039460</v>
       </c>
       <c r="F19" t="s">
         <v>58</v>
@@ -2126,19 +2081,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
       </c>
       <c r="C20">
-        <v>515880</v>
+        <v>515790</v>
       </c>
       <c r="D20" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="1">
-        <v>986367318</v>
+        <v>2013211824</v>
       </c>
       <c r="F20" t="s">
         <v>61</v>
@@ -2146,19 +2101,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>366</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
       </c>
       <c r="C21">
-        <v>159227</v>
+        <v>512670</v>
       </c>
       <c r="D21" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="1">
-        <v>854792749.142</v>
+        <v>366030611</v>
       </c>
       <c r="F21" t="s">
         <v>64</v>
@@ -2166,19 +2121,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>398</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
       </c>
       <c r="C22">
-        <v>512800</v>
+        <v>510720</v>
       </c>
       <c r="D22" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="1">
-        <v>829970100</v>
+        <v>88998567</v>
       </c>
       <c r="F22" t="s">
         <v>67</v>
@@ -2186,19 +2141,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>395</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
       </c>
       <c r="C23">
-        <v>159851</v>
+        <v>563300</v>
       </c>
       <c r="D23" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="1">
-        <v>815745503.86</v>
+        <v>713653657</v>
       </c>
       <c r="F23" t="s">
         <v>70</v>
@@ -2206,19 +2161,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
       <c r="C24">
-        <v>159201</v>
+        <v>159227</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
       </c>
       <c r="E24" s="1">
-        <v>737237085.2</v>
+        <v>854792749.142</v>
       </c>
       <c r="F24" t="s">
         <v>73</v>
@@ -2226,19 +2181,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>181</v>
+        <v>350</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
       </c>
       <c r="C25">
-        <v>159755</v>
+        <v>510880</v>
       </c>
       <c r="D25" t="s">
         <v>75</v>
       </c>
       <c r="E25" s="1">
-        <v>724669714.725</v>
+        <v>494701122</v>
       </c>
       <c r="F25" t="s">
         <v>76</v>
@@ -2246,19 +2201,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>111</v>
+        <v>352</v>
       </c>
       <c r="B26" t="s">
         <v>77</v>
       </c>
       <c r="C26">
-        <v>512170</v>
+        <v>512890</v>
       </c>
       <c r="D26" t="s">
         <v>78</v>
       </c>
       <c r="E26" s="1">
-        <v>721716526</v>
+        <v>649624390</v>
       </c>
       <c r="F26" t="s">
         <v>79</v>
@@ -2266,19 +2221,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s">
         <v>80</v>
       </c>
       <c r="C27">
-        <v>512690</v>
+        <v>510300</v>
       </c>
       <c r="D27" t="s">
         <v>81</v>
       </c>
       <c r="E27" s="1">
-        <v>719976289</v>
+        <v>31834663643</v>
       </c>
       <c r="F27" t="s">
         <v>82</v>
@@ -2306,19 +2261,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
         <v>86</v>
       </c>
       <c r="C29">
-        <v>563300</v>
+        <v>159870</v>
       </c>
       <c r="D29" t="s">
         <v>87</v>
       </c>
       <c r="E29" s="1">
-        <v>713653657</v>
+        <v>1826816234.266</v>
       </c>
       <c r="F29" t="s">
         <v>88</v>
@@ -2326,19 +2281,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s">
         <v>89</v>
       </c>
       <c r="C30">
-        <v>159819</v>
+        <v>159667</v>
       </c>
       <c r="D30" t="s">
         <v>90</v>
       </c>
       <c r="E30" s="1">
-        <v>691106465.886</v>
+        <v>103840270.3</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
@@ -2346,19 +2301,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
         <v>92</v>
       </c>
       <c r="C31">
-        <v>159869</v>
+        <v>562500</v>
       </c>
       <c r="D31" t="s">
         <v>93</v>
       </c>
       <c r="E31" s="1">
-        <v>686392111.942</v>
+        <v>1317074655</v>
       </c>
       <c r="F31" t="s">
         <v>94</v>
@@ -2366,19 +2321,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="B32" t="s">
         <v>95</v>
       </c>
       <c r="C32">
-        <v>512890</v>
+        <v>159998</v>
       </c>
       <c r="D32" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="1">
-        <v>649624390</v>
+        <v>163866440.455</v>
       </c>
       <c r="F32" t="s">
         <v>97</v>
@@ -2386,19 +2341,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
         <v>98</v>
       </c>
       <c r="C33">
-        <v>159992</v>
+        <v>512040</v>
       </c>
       <c r="D33" t="s">
         <v>99</v>
       </c>
       <c r="E33" s="1">
-        <v>635984492.214</v>
+        <v>76704894</v>
       </c>
       <c r="F33" t="s">
         <v>100</v>
@@ -2406,19 +2361,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B34" t="s">
         <v>101</v>
       </c>
       <c r="C34">
-        <v>560860</v>
+        <v>159745</v>
       </c>
       <c r="D34" t="s">
         <v>102</v>
       </c>
       <c r="E34" s="1">
-        <v>602044824</v>
+        <v>220023131.432</v>
       </c>
       <c r="F34" t="s">
         <v>103</v>
@@ -2426,19 +2381,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>172</v>
+        <v>395</v>
       </c>
       <c r="B35" t="s">
         <v>104</v>
       </c>
       <c r="C35">
-        <v>512200</v>
+        <v>159851</v>
       </c>
       <c r="D35" t="s">
         <v>105</v>
       </c>
       <c r="E35" s="1">
-        <v>592585962</v>
+        <v>815745503.86</v>
       </c>
       <c r="F35" t="s">
         <v>106</v>
@@ -2446,19 +2401,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>290</v>
+        <v>392</v>
       </c>
       <c r="B36" t="s">
         <v>107</v>
       </c>
       <c r="C36">
-        <v>515220</v>
+        <v>512690</v>
       </c>
       <c r="D36" t="s">
         <v>108</v>
       </c>
       <c r="E36" s="1">
-        <v>530032681</v>
+        <v>719976289</v>
       </c>
       <c r="F36" t="s">
         <v>109</v>
@@ -2466,19 +2421,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
         <v>110</v>
       </c>
       <c r="C37">
-        <v>516160</v>
+        <v>512710</v>
       </c>
       <c r="D37" t="s">
         <v>111</v>
       </c>
       <c r="E37" s="1">
-        <v>518771309</v>
+        <v>1079411157</v>
       </c>
       <c r="F37" t="s">
         <v>112</v>
@@ -2486,19 +2441,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s">
         <v>113</v>
       </c>
       <c r="C38">
-        <v>510880</v>
+        <v>515000</v>
       </c>
       <c r="D38" t="s">
         <v>114</v>
       </c>
       <c r="E38" s="1">
-        <v>494701122</v>
+        <v>143739066</v>
       </c>
       <c r="F38" t="s">
         <v>115</v>
@@ -2506,19 +2461,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
         <v>116</v>
       </c>
       <c r="C39">
-        <v>516650</v>
+        <v>159766</v>
       </c>
       <c r="D39" t="s">
         <v>117</v>
       </c>
       <c r="E39" s="1">
-        <v>487559622</v>
+        <v>283382954.7</v>
       </c>
       <c r="F39" t="s">
         <v>118</v>
@@ -2526,19 +2481,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>114</v>
+        <v>361</v>
       </c>
       <c r="B40" t="s">
         <v>119</v>
       </c>
       <c r="C40">
-        <v>159883</v>
+        <v>159625</v>
       </c>
       <c r="D40" t="s">
         <v>120</v>
       </c>
       <c r="E40" s="1">
-        <v>458740162.908</v>
+        <v>67985809.4</v>
       </c>
       <c r="F40" t="s">
         <v>121</v>
@@ -2546,19 +2501,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s">
         <v>122</v>
       </c>
       <c r="C41">
-        <v>562800</v>
+        <v>515220</v>
       </c>
       <c r="D41" t="s">
         <v>123</v>
       </c>
       <c r="E41" s="1">
-        <v>388122084</v>
+        <v>530032681</v>
       </c>
       <c r="F41" t="s">
         <v>124</v>
@@ -2566,19 +2521,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>125</v>
       </c>
       <c r="C42">
-        <v>159928</v>
+        <v>159790</v>
       </c>
       <c r="D42" t="s">
         <v>126</v>
       </c>
       <c r="E42" s="1">
-        <v>376936876.294</v>
+        <v>88483585.225</v>
       </c>
       <c r="F42" t="s">
         <v>127</v>
@@ -2586,19 +2541,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>140</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s">
         <v>128</v>
       </c>
       <c r="C43">
-        <v>512670</v>
+        <v>159930</v>
       </c>
       <c r="D43" t="s">
         <v>129</v>
       </c>
       <c r="E43" s="1">
-        <v>366030611</v>
+        <v>64458483</v>
       </c>
       <c r="F43" t="s">
         <v>130</v>
@@ -2606,19 +2561,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>304</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
         <v>131</v>
       </c>
       <c r="C44">
-        <v>159796</v>
+        <v>159825</v>
       </c>
       <c r="D44" t="s">
         <v>132</v>
       </c>
       <c r="E44" s="1">
-        <v>332005032.074</v>
+        <v>74878819.089</v>
       </c>
       <c r="F44" t="s">
         <v>133</v>
@@ -2626,19 +2581,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>360</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
         <v>134</v>
       </c>
       <c r="C45">
-        <v>510210</v>
+        <v>159819</v>
       </c>
       <c r="D45" t="s">
         <v>135</v>
       </c>
       <c r="E45" s="1">
-        <v>326697659</v>
+        <v>691106465.886</v>
       </c>
       <c r="F45" t="s">
         <v>136</v>
@@ -2646,19 +2601,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>179</v>
+        <v>385</v>
       </c>
       <c r="B46" t="s">
         <v>137</v>
       </c>
       <c r="C46">
-        <v>159566</v>
+        <v>159852</v>
       </c>
       <c r="D46" t="s">
         <v>138</v>
       </c>
       <c r="E46" s="1">
-        <v>294182480.233</v>
+        <v>1155073578.407</v>
       </c>
       <c r="F46" t="s">
         <v>139</v>
@@ -2666,19 +2621,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
         <v>140</v>
       </c>
       <c r="C47">
-        <v>159766</v>
+        <v>159206</v>
       </c>
       <c r="D47" t="s">
         <v>141</v>
       </c>
       <c r="E47" s="1">
-        <v>283382954.7</v>
+        <v>3914546331.945</v>
       </c>
       <c r="F47" t="s">
         <v>142</v>
@@ -2686,19 +2641,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>143</v>
       </c>
       <c r="C48">
-        <v>515030</v>
+        <v>510050</v>
       </c>
       <c r="D48" t="s">
         <v>144</v>
       </c>
       <c r="E48" s="1">
-        <v>268516783</v>
+        <v>12351771835</v>
       </c>
       <c r="F48" t="s">
         <v>145</v>
@@ -2706,19 +2661,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>345</v>
+        <v>248</v>
       </c>
       <c r="B49" t="s">
         <v>146</v>
       </c>
       <c r="C49">
-        <v>516150</v>
+        <v>159901</v>
       </c>
       <c r="D49" t="s">
         <v>147</v>
       </c>
       <c r="E49" s="1">
-        <v>253812189</v>
+        <v>245288858.66</v>
       </c>
       <c r="F49" t="s">
         <v>148</v>
@@ -2726,19 +2681,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>184</v>
+        <v>297</v>
       </c>
       <c r="B50" t="s">
         <v>149</v>
       </c>
       <c r="C50">
-        <v>516520</v>
+        <v>159105</v>
       </c>
       <c r="D50" t="s">
         <v>150</v>
       </c>
       <c r="E50" s="1">
-        <v>247719249</v>
+        <v>64378434.985</v>
       </c>
       <c r="F50" t="s">
         <v>151</v>
@@ -2746,19 +2701,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="B51" t="s">
         <v>152</v>
       </c>
       <c r="C51">
-        <v>159901</v>
+        <v>159859</v>
       </c>
       <c r="D51" t="s">
         <v>153</v>
       </c>
       <c r="E51" s="1">
-        <v>245288858.66</v>
+        <v>113769518.518</v>
       </c>
       <c r="F51" t="s">
         <v>154</v>
@@ -2766,19 +2721,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="B52" t="s">
         <v>155</v>
       </c>
       <c r="C52">
-        <v>513690</v>
+        <v>159731</v>
       </c>
       <c r="D52" t="s">
         <v>156</v>
       </c>
       <c r="E52" s="1">
-        <v>227208367</v>
+        <v>195071502.635</v>
       </c>
       <c r="F52" t="s">
         <v>157</v>
@@ -2786,19 +2741,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s">
         <v>158</v>
       </c>
       <c r="C53">
-        <v>515050</v>
+        <v>159697</v>
       </c>
       <c r="D53" t="s">
         <v>159</v>
       </c>
       <c r="E53" s="1">
-        <v>220154833</v>
+        <v>69414400.9</v>
       </c>
       <c r="F53" t="s">
         <v>160</v>
@@ -2806,19 +2761,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>166</v>
+        <v>405</v>
       </c>
       <c r="B54" t="s">
         <v>161</v>
       </c>
       <c r="C54">
-        <v>159745</v>
+        <v>515170</v>
       </c>
       <c r="D54" t="s">
         <v>162</v>
       </c>
       <c r="E54" s="1">
-        <v>220023131.432</v>
+        <v>122185499</v>
       </c>
       <c r="F54" t="s">
         <v>163</v>
@@ -2826,19 +2781,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>301</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s">
         <v>164</v>
       </c>
       <c r="C55">
-        <v>159611</v>
+        <v>515880</v>
       </c>
       <c r="D55" t="s">
         <v>165</v>
       </c>
       <c r="E55" s="1">
-        <v>218580685.963</v>
+        <v>986367318</v>
       </c>
       <c r="F55" t="s">
         <v>166</v>
@@ -2846,19 +2801,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B56" t="s">
         <v>167</v>
       </c>
       <c r="C56">
-        <v>515210</v>
+        <v>159378</v>
       </c>
       <c r="D56" t="s">
         <v>168</v>
       </c>
       <c r="E56" s="1">
-        <v>216076026</v>
+        <v>79604005.766</v>
       </c>
       <c r="F56" t="s">
         <v>169</v>
@@ -2866,19 +2821,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="B57" t="s">
         <v>170</v>
       </c>
       <c r="C57">
-        <v>159731</v>
+        <v>516150</v>
       </c>
       <c r="D57" t="s">
         <v>171</v>
       </c>
       <c r="E57" s="1">
-        <v>195071502.635</v>
+        <v>253812189</v>
       </c>
       <c r="F57" t="s">
         <v>172</v>
@@ -2886,19 +2841,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>65</v>
+        <v>346</v>
       </c>
       <c r="B58" t="s">
         <v>173</v>
       </c>
       <c r="C58">
-        <v>516510</v>
+        <v>562800</v>
       </c>
       <c r="D58" t="s">
         <v>174</v>
       </c>
       <c r="E58" s="1">
-        <v>165950479</v>
+        <v>388122084</v>
       </c>
       <c r="F58" t="s">
         <v>175</v>
@@ -2906,19 +2861,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>371</v>
+        <v>244</v>
       </c>
       <c r="B59" t="s">
         <v>176</v>
       </c>
       <c r="C59">
-        <v>159998</v>
+        <v>515650</v>
       </c>
       <c r="D59" t="s">
         <v>177</v>
       </c>
       <c r="E59" s="1">
-        <v>163866440.455</v>
+        <v>105207073</v>
       </c>
       <c r="F59" t="s">
         <v>178</v>
@@ -2926,19 +2881,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>340</v>
+        <v>247</v>
       </c>
       <c r="B60" t="s">
         <v>179</v>
       </c>
       <c r="C60">
-        <v>515000</v>
+        <v>159732</v>
       </c>
       <c r="D60" t="s">
         <v>180</v>
       </c>
       <c r="E60" s="1">
-        <v>143739066</v>
+        <v>118157742.862</v>
       </c>
       <c r="F60" t="s">
         <v>181</v>
@@ -2946,19 +2901,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>164</v>
+        <v>368</v>
       </c>
       <c r="B61" t="s">
         <v>182</v>
       </c>
       <c r="C61">
-        <v>560280</v>
+        <v>159599</v>
       </c>
       <c r="D61" t="s">
         <v>183</v>
       </c>
       <c r="E61" s="1">
-        <v>143039460</v>
+        <v>121376701.7</v>
       </c>
       <c r="F61" t="s">
         <v>184</v>
@@ -2966,19 +2921,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>408</v>
+        <v>177</v>
       </c>
       <c r="B62" t="s">
         <v>185</v>
       </c>
       <c r="C62">
-        <v>159638</v>
+        <v>516160</v>
       </c>
       <c r="D62" t="s">
         <v>186</v>
       </c>
       <c r="E62" s="1">
-        <v>131882480.429</v>
+        <v>518771309</v>
       </c>
       <c r="F62" t="s">
         <v>187</v>
@@ -2986,19 +2941,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="B63" t="s">
         <v>188</v>
       </c>
       <c r="C63">
-        <v>159595</v>
+        <v>159755</v>
       </c>
       <c r="D63" t="s">
         <v>189</v>
       </c>
       <c r="E63" s="1">
-        <v>127370683.849</v>
+        <v>724669714.725</v>
       </c>
       <c r="F63" t="s">
         <v>190</v>
@@ -3006,19 +2961,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B64" t="s">
         <v>191</v>
       </c>
       <c r="C64">
-        <v>515400</v>
+        <v>515030</v>
       </c>
       <c r="D64" t="s">
         <v>192</v>
       </c>
       <c r="E64" s="1">
-        <v>125323162</v>
+        <v>268516783</v>
       </c>
       <c r="F64" t="s">
         <v>193</v>
@@ -3026,19 +2981,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>405</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
         <v>194</v>
       </c>
       <c r="C65">
-        <v>515170</v>
+        <v>512170</v>
       </c>
       <c r="D65" t="s">
         <v>195</v>
       </c>
       <c r="E65" s="1">
-        <v>122185499</v>
+        <v>721716526</v>
       </c>
       <c r="F65" t="s">
         <v>196</v>
@@ -3046,19 +3001,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>368</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s">
         <v>197</v>
       </c>
       <c r="C66">
-        <v>159599</v>
+        <v>159883</v>
       </c>
       <c r="D66" t="s">
         <v>198</v>
       </c>
       <c r="E66" s="1">
-        <v>121376701.7</v>
+        <v>458740162.908</v>
       </c>
       <c r="F66" t="s">
         <v>199</v>
@@ -3066,19 +3021,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>247</v>
+        <v>118</v>
       </c>
       <c r="B67" t="s">
         <v>200</v>
       </c>
       <c r="C67">
-        <v>159732</v>
+        <v>159929</v>
       </c>
       <c r="D67" t="s">
         <v>201</v>
       </c>
       <c r="E67" s="1">
-        <v>118157742.862</v>
+        <v>86499776.9</v>
       </c>
       <c r="F67" t="s">
         <v>202</v>
@@ -3086,19 +3041,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>296</v>
+        <v>398</v>
       </c>
       <c r="B68" t="s">
         <v>203</v>
       </c>
       <c r="C68">
-        <v>159859</v>
+        <v>512800</v>
       </c>
       <c r="D68" t="s">
         <v>204</v>
       </c>
       <c r="E68" s="1">
-        <v>113769518.518</v>
+        <v>829970100</v>
       </c>
       <c r="F68" t="s">
         <v>205</v>
@@ -3106,19 +3061,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="B69" t="s">
         <v>206</v>
       </c>
       <c r="C69">
-        <v>515650</v>
+        <v>512400</v>
       </c>
       <c r="D69" t="s">
         <v>207</v>
       </c>
       <c r="E69" s="1">
-        <v>105207073</v>
+        <v>1784756989</v>
       </c>
       <c r="F69" t="s">
         <v>208</v>
@@ -3126,19 +3081,19 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
         <v>209</v>
       </c>
       <c r="C70">
-        <v>159667</v>
+        <v>516510</v>
       </c>
       <c r="D70" t="s">
         <v>210</v>
       </c>
       <c r="E70" s="1">
-        <v>103840270.3</v>
+        <v>165950479</v>
       </c>
       <c r="F70" t="s">
         <v>211</v>
@@ -3146,19 +3101,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>170</v>
+        <v>373</v>
       </c>
       <c r="B71" t="s">
         <v>212</v>
       </c>
       <c r="C71">
-        <v>159259</v>
+        <v>512880</v>
       </c>
       <c r="D71" t="s">
         <v>213</v>
       </c>
       <c r="E71" s="1">
-        <v>94025668.295</v>
+        <v>2173364060</v>
       </c>
       <c r="F71" t="s">
         <v>214</v>
@@ -3166,19 +3121,19 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="B72" t="s">
         <v>215</v>
       </c>
       <c r="C72">
-        <v>510720</v>
+        <v>516520</v>
       </c>
       <c r="D72" t="s">
         <v>216</v>
       </c>
       <c r="E72" s="1">
-        <v>88998567</v>
+        <v>247719249</v>
       </c>
       <c r="F72" t="s">
         <v>217</v>
@@ -3186,19 +3141,19 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="B73" t="s">
         <v>218</v>
       </c>
       <c r="C73">
-        <v>159790</v>
+        <v>512100</v>
       </c>
       <c r="D73" t="s">
         <v>219</v>
       </c>
       <c r="E73" s="1">
-        <v>88483585.225</v>
+        <v>11508716134</v>
       </c>
       <c r="F73" t="s">
         <v>220</v>
@@ -3206,19 +3161,19 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
         <v>221</v>
       </c>
       <c r="C74">
-        <v>159929</v>
+        <v>510500</v>
       </c>
       <c r="D74" t="s">
         <v>222</v>
       </c>
       <c r="E74" s="1">
-        <v>86499776.9</v>
+        <v>5772176393</v>
       </c>
       <c r="F74" t="s">
         <v>223</v>
@@ -3226,19 +3181,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
         <v>224</v>
       </c>
       <c r="C75">
-        <v>159865</v>
+        <v>515800</v>
       </c>
       <c r="D75" t="s">
         <v>225</v>
       </c>
       <c r="E75" s="1">
-        <v>83414301.596</v>
+        <v>78396293</v>
       </c>
       <c r="F75" t="s">
         <v>226</v>
@@ -3246,19 +3201,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>391</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s">
         <v>227</v>
       </c>
       <c r="C76">
-        <v>159378</v>
+        <v>159928</v>
       </c>
       <c r="D76" t="s">
         <v>228</v>
       </c>
       <c r="E76" s="1">
-        <v>79604005.766</v>
+        <v>376936876.294</v>
       </c>
       <c r="F76" t="s">
         <v>229</v>
@@ -3266,19 +3221,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>22</v>
+        <v>365</v>
       </c>
       <c r="B77" t="s">
         <v>230</v>
       </c>
       <c r="C77">
-        <v>515800</v>
+        <v>159201</v>
       </c>
       <c r="D77" t="s">
         <v>231</v>
       </c>
       <c r="E77" s="1">
-        <v>78396293</v>
+        <v>737237085.2</v>
       </c>
       <c r="F77" t="s">
         <v>232</v>
@@ -3286,128 +3241,28 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>68</v>
+        <v>360</v>
       </c>
       <c r="B78" t="s">
         <v>233</v>
       </c>
       <c r="C78">
-        <v>512040</v>
+        <v>510210</v>
       </c>
       <c r="D78" t="s">
         <v>234</v>
       </c>
       <c r="E78" s="1">
-        <v>76704894</v>
+        <v>326697659</v>
       </c>
       <c r="F78" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>87</v>
-      </c>
-      <c r="B79" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79">
-        <v>159825</v>
-      </c>
-      <c r="D79" t="s">
-        <v>237</v>
-      </c>
-      <c r="E79" s="1">
-        <v>74878819.089</v>
-      </c>
-      <c r="F79" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>310</v>
-      </c>
-      <c r="B80" t="s">
-        <v>239</v>
-      </c>
-      <c r="C80">
-        <v>159697</v>
-      </c>
-      <c r="D80" t="s">
-        <v>240</v>
-      </c>
-      <c r="E80" s="1">
-        <v>69414400.9</v>
-      </c>
-      <c r="F80" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>361</v>
-      </c>
-      <c r="B81" t="s">
-        <v>242</v>
-      </c>
-      <c r="C81">
-        <v>159625</v>
-      </c>
-      <c r="D81" t="s">
-        <v>243</v>
-      </c>
-      <c r="E81" s="1">
-        <v>67985809.4</v>
-      </c>
-      <c r="F81" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>363</v>
-      </c>
-      <c r="B82" t="s">
-        <v>245</v>
-      </c>
-      <c r="C82">
-        <v>159930</v>
-      </c>
-      <c r="D82" t="s">
-        <v>246</v>
-      </c>
-      <c r="E82" s="1">
-        <v>64458483</v>
-      </c>
-      <c r="F82" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>297</v>
-      </c>
-      <c r="B83" t="s">
-        <v>248</v>
-      </c>
-      <c r="C83">
-        <v>159105</v>
-      </c>
-      <c r="D83" t="s">
-        <v>249</v>
-      </c>
-      <c r="E83" s="1">
-        <v>64378434.985</v>
-      </c>
-      <c r="F83" t="s">
-        <v>250</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J83" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:J83">
-      <sortCondition ref="E1:E83" descending="1"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J78" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:J78">
+      <sortCondition ref="F1:F78"/>
     </sortState>
     <extLst/>
   </autoFilter>
